--- a/data/EPNM/interim/calibration_data/ERMG_temporary_unemployment.xlsx
+++ b/data/EPNM/interim/calibration_data/ERMG_temporary_unemployment.xlsx
@@ -224,7 +224,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -249,6 +249,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -317,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,6 +337,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,15 +349,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,13 +440,13 @@
   </sheetPr>
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BK8" activeCellId="0" sqref="BK8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.53"/>
@@ -888,8 +899,8 @@
       <c r="BH3" s="2" t="n">
         <v>72.0974450386215</v>
       </c>
-      <c r="BK3" s="2" t="n">
-        <v>99.84375</v>
+      <c r="BK3" s="3" t="n">
+        <v>99</v>
       </c>
       <c r="BM3" s="0" t="n">
         <v>31</v>
@@ -1126,8 +1137,8 @@
       <c r="BH5" s="2" t="n">
         <v>86.094867807154</v>
       </c>
-      <c r="BK5" s="2" t="n">
-        <v>100</v>
+      <c r="BK5" s="3" t="n">
+        <v>99</v>
       </c>
       <c r="BM5" s="0" t="n">
         <v>29</v>
@@ -1245,8 +1256,8 @@
       <c r="BH6" s="2" t="n">
         <v>85.1504787961696</v>
       </c>
-      <c r="BK6" s="2" t="n">
-        <v>100</v>
+      <c r="BK6" s="3" t="n">
+        <v>99</v>
       </c>
       <c r="BM6" s="0" t="n">
         <v>24</v>
@@ -1364,8 +1375,8 @@
       <c r="BH7" s="2" t="n">
         <v>84.0239520958084</v>
       </c>
-      <c r="BK7" s="2" t="n">
-        <v>100</v>
+      <c r="BK7" s="3" t="n">
+        <v>99</v>
       </c>
       <c r="BM7" s="0" t="n">
         <v>22</v>
@@ -1732,115 +1743,115 @@
       <c r="A11" s="1" t="n">
         <v>44061</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>2.13016475459329</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>6.89846047396644</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>7.71592225511649</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="4" t="n">
         <v>2.36923831317424</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>2.36923831317424</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="4" t="n">
         <v>3.19303875586275</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="4" t="n">
         <v>3.19303875586275</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>13.650054433289</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>13.650054433289</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="4" t="n">
         <v>5.11772400261609</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <v>5.7856001762794</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="4" t="n">
         <v>0.206896551724138</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="4" t="n">
         <v>1.25789309159112</v>
       </c>
-      <c r="AB11" s="3" t="n">
+      <c r="AB11" s="4" t="n">
         <v>3.12566817256958</v>
       </c>
-      <c r="AD11" s="3" t="n">
+      <c r="AD11" s="4" t="n">
         <v>3.26595358955765</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="AF11" s="3" t="n">
+      <c r="AF11" s="4" t="n">
         <v>2.88738019169329</v>
       </c>
-      <c r="AH11" s="3" t="n">
+      <c r="AH11" s="4" t="n">
         <v>4.57259585166562</v>
       </c>
-      <c r="AI11" s="3" t="n">
+      <c r="AI11" s="4" t="n">
         <v>3.21170892599464</v>
       </c>
-      <c r="AK11" s="3" t="n">
+      <c r="AK11" s="4" t="n">
         <v>24.4617773530817</v>
       </c>
-      <c r="AL11" s="3" t="n">
+      <c r="AL11" s="4" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AM11" s="3" t="n">
+      <c r="AM11" s="4" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AN11" s="3" t="n">
+      <c r="AN11" s="4" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AO11" s="3" t="n">
+      <c r="AO11" s="4" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AP11" s="3" t="n">
+      <c r="AP11" s="4" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AQ11" s="3" t="n">
+      <c r="AQ11" s="4" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AR11" s="3" t="n">
+      <c r="AR11" s="4" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AS11" s="3" t="n">
+      <c r="AS11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AT11" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="AZ11" s="3" t="n">
+      <c r="AZ11" s="4" t="n">
         <v>12.8867046042421</v>
       </c>
-      <c r="BA11" s="3" t="n">
+      <c r="BA11" s="4" t="n">
         <v>69.2809642560266</v>
       </c>
       <c r="BB11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="BG11" s="3" t="n">
+      <c r="BG11" s="4" t="n">
         <v>60.1125509070715</v>
       </c>
-      <c r="BH11" s="3" t="n">
+      <c r="BH11" s="4" t="n">
         <v>60.1125509070715</v>
       </c>
-      <c r="BK11" s="3" t="n">
+      <c r="BK11" s="4" t="n">
         <v>10.8428571428571</v>
       </c>
       <c r="BM11" s="0" t="n">
@@ -1851,115 +1862,115 @@
       <c r="A12" s="1" t="n">
         <v>44096</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>1.49253731343284</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>1.49253731343284</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>1.94863204913456</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>6.05306859205776</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>8.5968914514916</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L12" s="4" t="n">
         <v>1.4736697468311</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="4" t="n">
         <v>1.4736697468311</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="N12" s="4" t="n">
         <v>7.60351583183311</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="4" t="n">
         <v>7.60351583183311</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="4" t="n">
         <v>10.4502740798747</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="4" t="n">
         <v>10.4502740798747</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="R12" s="4" t="n">
         <v>3.61459265890779</v>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="T12" s="4" t="n">
         <v>2.61707078128827</v>
       </c>
-      <c r="V12" s="3" t="n">
+      <c r="V12" s="4" t="n">
         <v>1.40167364016736</v>
       </c>
-      <c r="W12" s="3" t="n">
+      <c r="W12" s="4" t="n">
         <v>2.03678779721848</v>
       </c>
-      <c r="AB12" s="3" t="n">
+      <c r="AB12" s="4" t="n">
         <v>2.46416596814753</v>
       </c>
-      <c r="AD12" s="3" t="n">
+      <c r="AD12" s="4" t="n">
         <v>4.25445705024311</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF12" s="3" t="n">
+      <c r="AF12" s="4" t="n">
         <v>8.63859516616314</v>
       </c>
-      <c r="AH12" s="3" t="n">
+      <c r="AH12" s="4" t="n">
         <v>1.46396396396396</v>
       </c>
-      <c r="AI12" s="3" t="n">
+      <c r="AI12" s="4" t="n">
         <v>5.57336523125997</v>
       </c>
-      <c r="AK12" s="3" t="n">
+      <c r="AK12" s="4" t="n">
         <v>34.2603795966785</v>
       </c>
-      <c r="AL12" s="3" t="n">
+      <c r="AL12" s="4" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AM12" s="3" t="n">
+      <c r="AM12" s="4" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AN12" s="3" t="n">
+      <c r="AN12" s="4" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AO12" s="3" t="n">
+      <c r="AO12" s="4" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AP12" s="3" t="n">
+      <c r="AP12" s="4" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AQ12" s="3" t="n">
+      <c r="AQ12" s="4" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AR12" s="3" t="n">
+      <c r="AR12" s="4" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AS12" s="3" t="n">
+      <c r="AS12" s="4" t="n">
         <v>15.5844155844156</v>
       </c>
       <c r="AT12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AZ12" s="3" t="n">
+      <c r="AZ12" s="4" t="n">
         <v>0.855285376561972</v>
       </c>
-      <c r="BA12" s="3" t="n">
+      <c r="BA12" s="4" t="n">
         <v>63.2489959839357</v>
       </c>
       <c r="BB12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG12" s="3" t="n">
+      <c r="BG12" s="4" t="n">
         <v>58.4554991539763</v>
       </c>
-      <c r="BH12" s="3" t="n">
+      <c r="BH12" s="4" t="n">
         <v>58.4554991539763</v>
       </c>
-      <c r="BK12" s="3" t="n">
+      <c r="BK12" s="4" t="n">
         <v>11.0077519379845</v>
       </c>
       <c r="BM12" s="0" t="n">
@@ -1970,115 +1981,115 @@
       <c r="A13" s="1" t="n">
         <v>44124</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>1.60599571734475</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>1.60599571734475</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>2.5197358713295</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>10.9812082405345</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>5.37081189609738</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="4" t="n">
         <v>1.63052661222191</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="4" t="n">
         <v>1.63052661222191</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="4" t="n">
         <v>0.49580472921434</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="4" t="n">
         <v>0.49580472921434</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="4" t="n">
         <v>9.38970171260066</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="4" t="n">
         <v>9.38970171260066</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="4" t="n">
         <v>0.862405805191181</v>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="4" t="n">
         <v>6.54495696498705</v>
       </c>
-      <c r="V13" s="3" t="n">
+      <c r="V13" s="4" t="n">
         <v>3.16375601113642</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="4" t="n">
         <v>5.8028028028028</v>
       </c>
-      <c r="AB13" s="3" t="n">
+      <c r="AB13" s="4" t="n">
         <v>2.3671096345515</v>
       </c>
-      <c r="AD13" s="3" t="n">
+      <c r="AD13" s="4" t="n">
         <v>6.0143286750398</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF13" s="3" t="n">
+      <c r="AF13" s="4" t="n">
         <v>10.8547655068079</v>
       </c>
-      <c r="AH13" s="3" t="n">
+      <c r="AH13" s="4" t="n">
         <v>5.62756876383181</v>
       </c>
-      <c r="AI13" s="3" t="n">
+      <c r="AI13" s="4" t="n">
         <v>3.54660207120316</v>
       </c>
-      <c r="AK13" s="3" t="n">
+      <c r="AK13" s="4" t="n">
         <v>59.5436218282934</v>
       </c>
-      <c r="AL13" s="3" t="n">
+      <c r="AL13" s="4" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AM13" s="3" t="n">
+      <c r="AM13" s="4" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AN13" s="3" t="n">
+      <c r="AN13" s="4" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AO13" s="3" t="n">
+      <c r="AO13" s="4" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AP13" s="3" t="n">
+      <c r="AP13" s="4" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AQ13" s="3" t="n">
+      <c r="AQ13" s="4" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AR13" s="3" t="n">
+      <c r="AR13" s="4" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AS13" s="3" t="n">
+      <c r="AS13" s="4" t="n">
         <v>2.73556231003039</v>
       </c>
       <c r="AT13" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="AZ13" s="3" t="n">
+      <c r="AZ13" s="4" t="n">
         <v>4.66833890746934</v>
       </c>
-      <c r="BA13" s="3" t="n">
+      <c r="BA13" s="4" t="n">
         <v>68.5383064516129</v>
       </c>
       <c r="BB13" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="BG13" s="3" t="n">
+      <c r="BG13" s="4" t="n">
         <v>61.3140333660452</v>
       </c>
-      <c r="BH13" s="3" t="n">
+      <c r="BH13" s="4" t="n">
         <v>61.3140333660452</v>
       </c>
-      <c r="BK13" s="3" t="n">
+      <c r="BK13" s="4" t="n">
         <v>14.7250859106529</v>
       </c>
       <c r="BM13" s="0" t="n">
@@ -2089,115 +2100,115 @@
       <c r="A14" s="1" t="n">
         <v>44145</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>5.33536585365854</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>5.33536585365854</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4" t="n">
         <v>3.39375629405841</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="4" t="n">
         <v>7.76861451460886</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="4" t="n">
         <v>4.5785726113595</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="4" t="n">
         <v>0.953167839940719</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="4" t="n">
         <v>0.953167839940719</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="4" t="n">
         <v>1.82595680992089</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="4" t="n">
         <v>1.82595680992089</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="4" t="n">
         <v>6.34461487162388</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="Q14" s="4" t="n">
         <v>6.34461487162388</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="R14" s="4" t="n">
         <v>2.57590841214535</v>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="T14" s="4" t="n">
         <v>8.26009713701431</v>
       </c>
-      <c r="V14" s="3" t="n">
+      <c r="V14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="W14" s="4" t="n">
         <v>5.71321038765525</v>
       </c>
-      <c r="AB14" s="3" t="n">
+      <c r="AB14" s="4" t="n">
         <v>4.35640606767795</v>
       </c>
-      <c r="AD14" s="3" t="n">
+      <c r="AD14" s="4" t="n">
         <v>8.82039781591264</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>23.5</v>
       </c>
-      <c r="AF14" s="3" t="n">
+      <c r="AF14" s="4" t="n">
         <v>6.03728813559322</v>
       </c>
-      <c r="AH14" s="3" t="n">
+      <c r="AH14" s="4" t="n">
         <v>1.14823348694316</v>
       </c>
-      <c r="AI14" s="3" t="n">
+      <c r="AI14" s="4" t="n">
         <v>2.1379726468222</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="4" t="n">
         <v>70.0507767215395</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="4" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="4" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="4" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="4" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="4" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AQ14" s="3" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AR14" s="3" t="n">
+      <c r="AR14" s="4" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AS14" s="3" t="n">
+      <c r="AS14" s="4" t="n">
         <v>7.16452991452992</v>
       </c>
       <c r="AT14" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="AZ14" s="3" t="n">
+      <c r="AZ14" s="4" t="n">
         <v>4.8155737704918</v>
       </c>
-      <c r="BA14" s="3" t="n">
+      <c r="BA14" s="4" t="n">
         <v>45.3097893432466</v>
       </c>
       <c r="BB14" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="BG14" s="3" t="n">
+      <c r="BG14" s="4" t="n">
         <v>57.003164556962</v>
       </c>
-      <c r="BH14" s="3" t="n">
+      <c r="BH14" s="4" t="n">
         <v>57.003164556962</v>
       </c>
-      <c r="BK14" s="3" t="n">
+      <c r="BK14" s="4" t="n">
         <v>85.2494802494803</v>
       </c>
       <c r="BM14" s="0" t="n">
@@ -2208,115 +2219,115 @@
       <c r="A15" s="1" t="n">
         <v>44173</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.660660660660661</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.660660660660661</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>2.20662170447578</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="4" t="n">
         <v>9.02056074766355</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>5.65770736917052</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="L15" s="4" t="n">
         <v>0.890104841067625</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>0.890104841067625</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N15" s="4" t="n">
         <v>5.34887924801157</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="O15" s="4" t="n">
         <v>5.34887924801157</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="P15" s="4" t="n">
         <v>3.67263901777429</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="Q15" s="4" t="n">
         <v>3.67263901777429</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="R15" s="4" t="n">
         <v>1.04982206405694</v>
       </c>
-      <c r="T15" s="3" t="n">
+      <c r="T15" s="4" t="n">
         <v>5.83274647887324</v>
       </c>
-      <c r="V15" s="3" t="n">
+      <c r="V15" s="4" t="n">
         <v>4.31769340974212</v>
       </c>
-      <c r="W15" s="3" t="n">
+      <c r="W15" s="4" t="n">
         <v>9.5592485549133</v>
       </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AB15" s="4" t="n">
         <v>2.18907579198583</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="4" t="n">
         <v>9.94964219454015</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF15" s="3" t="n">
+      <c r="AF15" s="4" t="n">
         <v>6.11378205128205</v>
       </c>
-      <c r="AH15" s="3" t="n">
+      <c r="AH15" s="4" t="n">
         <v>54.6974608319827</v>
       </c>
-      <c r="AI15" s="3" t="n">
+      <c r="AI15" s="4" t="n">
         <v>2.40375885236971</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="4" t="n">
         <v>72.8987194412107</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="4" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="4" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="4" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="4" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="4" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AR15" s="3" t="n">
+      <c r="AR15" s="4" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AS15" s="3" t="n">
+      <c r="AS15" s="4" t="n">
         <v>5.74538258575198</v>
       </c>
       <c r="AT15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AZ15" s="3" t="n">
+      <c r="AZ15" s="4" t="n">
         <v>1.99570815450644</v>
       </c>
-      <c r="BA15" s="3" t="n">
+      <c r="BA15" s="4" t="n">
         <v>64.6815286624204</v>
       </c>
       <c r="BB15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="BG15" s="3" t="n">
+      <c r="BG15" s="4" t="n">
         <v>62.4537444933921</v>
       </c>
-      <c r="BH15" s="3" t="n">
+      <c r="BH15" s="4" t="n">
         <v>62.4537444933921</v>
       </c>
-      <c r="BK15" s="3" t="n">
+      <c r="BK15" s="4" t="n">
         <v>83.4959742351047</v>
       </c>
       <c r="BM15" s="0" t="n">
@@ -2327,115 +2338,115 @@
       <c r="A16" s="1" t="n">
         <v>44208</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>0.204460966542751</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>0.204460966542751</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>5.40905409054091</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="4" t="n">
         <v>5.66405917864127</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>2.41957104557641</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="4" t="n">
         <v>0.451586136465182</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="M16" s="4" t="n">
         <v>0.451586136465182</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="N16" s="4" t="n">
         <v>2.58896338318721</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="O16" s="4" t="n">
         <v>2.58896338318721</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="4" t="n">
         <v>3.10443218565722</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="Q16" s="4" t="n">
         <v>3.10443218565722</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="R16" s="4" t="n">
         <v>4.55696202531646</v>
       </c>
-      <c r="T16" s="3" t="n">
+      <c r="T16" s="4" t="n">
         <v>2.17545719586536</v>
       </c>
-      <c r="V16" s="3" t="n">
+      <c r="V16" s="4" t="n">
         <v>1.26284289276808</v>
       </c>
-      <c r="W16" s="3" t="n">
+      <c r="W16" s="4" t="n">
         <v>4.79103834554072</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="4" t="n">
         <v>1.90340358978178</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="4" t="n">
         <v>4.9629217059198</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF16" s="3" t="n">
+      <c r="AF16" s="4" t="n">
         <v>21.5538628944505</v>
       </c>
-      <c r="AH16" s="3" t="n">
+      <c r="AH16" s="4" t="n">
         <v>22.3255352894528</v>
       </c>
-      <c r="AI16" s="3" t="n">
+      <c r="AI16" s="4" t="n">
         <v>2.68310265282584</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="4" t="n">
         <v>71.3916191311979</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="4" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="4" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="4" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="4" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="4" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AR16" s="3" t="n">
+      <c r="AR16" s="4" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AS16" s="3" t="n">
+      <c r="AS16" s="4" t="n">
         <v>1.61206896551724</v>
       </c>
       <c r="AT16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AZ16" s="3" t="n">
+      <c r="AZ16" s="4" t="n">
         <v>1.57286212914485</v>
       </c>
-      <c r="BA16" s="3" t="n">
+      <c r="BA16" s="4" t="n">
         <v>40.8438818565401</v>
       </c>
       <c r="BB16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG16" s="3" t="n">
+      <c r="BG16" s="4" t="n">
         <v>46.8894389438944</v>
       </c>
-      <c r="BH16" s="3" t="n">
+      <c r="BH16" s="4" t="n">
         <v>46.8894389438944</v>
       </c>
-      <c r="BK16" s="3" t="n">
+      <c r="BK16" s="4" t="n">
         <v>92.0143149284253</v>
       </c>
       <c r="BM16" s="0" t="n">
@@ -2446,115 +2457,115 @@
       <c r="A17" s="1" t="n">
         <v>44236</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>1.72594142259414</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>1.72594142259414</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>7.01038794485412</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="4" t="n">
         <v>2.24369621017666</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>9.39545676599902</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="L17" s="4" t="n">
         <v>1.54096477794793</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="4" t="n">
         <v>1.54096477794793</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N17" s="4" t="n">
         <v>2.53907703758839</v>
       </c>
-      <c r="O17" s="3" t="n">
+      <c r="O17" s="4" t="n">
         <v>2.53907703758839</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="P17" s="4" t="n">
         <v>6.31197859279081</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="Q17" s="4" t="n">
         <v>6.31197859279081</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="R17" s="4" t="n">
         <v>1.19209265175719</v>
       </c>
-      <c r="T17" s="3" t="n">
+      <c r="T17" s="4" t="n">
         <v>2.01022436807725</v>
       </c>
-      <c r="V17" s="3" t="n">
+      <c r="V17" s="4" t="n">
         <v>0.547958978483813</v>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="W17" s="4" t="n">
         <v>4.91837588949351</v>
       </c>
-      <c r="AB17" s="3" t="n">
+      <c r="AB17" s="4" t="n">
         <v>2.02833251790241</v>
       </c>
-      <c r="AD17" s="3" t="n">
+      <c r="AD17" s="4" t="n">
         <v>6.95749856897539</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF17" s="3" t="n">
+      <c r="AF17" s="4" t="n">
         <v>5.90909090909091</v>
       </c>
-      <c r="AH17" s="3" t="n">
+      <c r="AH17" s="4" t="n">
         <v>19.7287299630086</v>
       </c>
-      <c r="AI17" s="3" t="n">
+      <c r="AI17" s="4" t="n">
         <v>2.79183119447187</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="4" t="n">
         <v>60.5058688806184</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="4" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="4" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="4" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="4" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="4" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AR17" s="3" t="n">
+      <c r="AR17" s="4" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AS17" s="3" t="n">
+      <c r="AS17" s="4" t="n">
         <v>5.73991031390135</v>
       </c>
       <c r="AT17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ17" s="3" t="n">
+      <c r="AZ17" s="4" t="n">
         <v>2.16924910607866</v>
       </c>
-      <c r="BA17" s="3" t="n">
+      <c r="BA17" s="4" t="n">
         <v>70.2730109204368</v>
       </c>
       <c r="BB17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG17" s="3" t="n">
+      <c r="BG17" s="4" t="n">
         <v>56.4194139194139</v>
       </c>
-      <c r="BH17" s="3" t="n">
+      <c r="BH17" s="4" t="n">
         <v>56.4194139194139</v>
       </c>
-      <c r="BK17" s="3" t="n">
+      <c r="BK17" s="4" t="n">
         <v>89</v>
       </c>
       <c r="BM17" s="0" t="n">
@@ -2565,115 +2576,115 @@
       <c r="A18" s="1" t="n">
         <v>44271</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>2.36486486486486</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>2.36486486486486</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="4" t="n">
         <v>4.60835008222182</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="4" t="n">
         <v>3.15904139433551</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>14.2099091175608</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <v>0.872440273037543</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="M18" s="4" t="n">
         <v>0.872440273037543</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N18" s="4" t="n">
         <v>2.47296322999279</v>
       </c>
-      <c r="O18" s="3" t="n">
+      <c r="O18" s="4" t="n">
         <v>2.47296322999279</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="P18" s="4" t="n">
         <v>3.31036168132942</v>
       </c>
-      <c r="Q18" s="3" t="n">
+      <c r="Q18" s="4" t="n">
         <v>3.31036168132942</v>
       </c>
-      <c r="R18" s="3" t="n">
+      <c r="R18" s="4" t="n">
         <v>1.57685762904141</v>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="T18" s="4" t="n">
         <v>1.74349872675361</v>
       </c>
-      <c r="V18" s="3" t="n">
+      <c r="V18" s="4" t="n">
         <v>2.72331154684096</v>
       </c>
-      <c r="W18" s="3" t="n">
+      <c r="W18" s="4" t="n">
         <v>6.94990488268865</v>
       </c>
-      <c r="AB18" s="3" t="n">
+      <c r="AB18" s="4" t="n">
         <v>1.22086118839015</v>
       </c>
-      <c r="AD18" s="3" t="n">
+      <c r="AD18" s="4" t="n">
         <v>5.91094295692666</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AF18" s="3" t="n">
+      <c r="AF18" s="4" t="n">
         <v>40.7352941176471</v>
       </c>
-      <c r="AH18" s="3" t="n">
+      <c r="AH18" s="4" t="n">
         <v>15.8610271903323</v>
       </c>
-      <c r="AI18" s="3" t="n">
+      <c r="AI18" s="4" t="n">
         <v>2.39155693261038</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="4" t="n">
         <v>76.5192307692308</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="4" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="4" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="4" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="4" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="4" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AR18" s="3" t="n">
+      <c r="AR18" s="4" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AS18" s="3" t="n">
+      <c r="AS18" s="4" t="n">
         <v>2.66924564796905</v>
       </c>
       <c r="AT18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ18" s="3" t="n">
+      <c r="AZ18" s="4" t="n">
         <v>1.09357881923311</v>
       </c>
-      <c r="BA18" s="3" t="n">
+      <c r="BA18" s="4" t="n">
         <v>64.6098829648895</v>
       </c>
       <c r="BB18" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="BG18" s="3" t="n">
+      <c r="BG18" s="4" t="n">
         <v>46.7102552619794</v>
       </c>
-      <c r="BH18" s="3" t="n">
+      <c r="BH18" s="4" t="n">
         <v>46.7102552619794</v>
       </c>
-      <c r="BK18" s="3" t="n">
+      <c r="BK18" s="4" t="n">
         <v>11.304347826087</v>
       </c>
       <c r="BM18" s="0" t="n">
@@ -2684,115 +2695,115 @@
       <c r="A19" s="1" t="n">
         <v>44306</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>4.77356181150551</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>4.77356181150551</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4" t="n">
         <v>7.06175680859225</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="4" t="n">
         <v>4.25785032507954</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="4" t="n">
         <v>10.4211733857752</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="4" t="n">
         <v>1.47115482104836</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="4" t="n">
         <v>1.47115482104836</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N19" s="4" t="n">
         <v>0.408041401273885</v>
       </c>
-      <c r="O19" s="3" t="n">
+      <c r="O19" s="4" t="n">
         <v>0.408041401273885</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="P19" s="4" t="n">
         <v>3.82786214422115</v>
       </c>
-      <c r="Q19" s="3" t="n">
+      <c r="Q19" s="4" t="n">
         <v>3.82786214422115</v>
       </c>
-      <c r="R19" s="3" t="n">
+      <c r="R19" s="4" t="n">
         <v>1.77496038034865</v>
       </c>
-      <c r="T19" s="3" t="n">
+      <c r="T19" s="4" t="n">
         <v>3.13403684161807</v>
       </c>
-      <c r="V19" s="3" t="n">
+      <c r="V19" s="4" t="n">
         <v>4.52104499274311</v>
       </c>
-      <c r="W19" s="3" t="n">
+      <c r="W19" s="4" t="n">
         <v>6.20337109698812</v>
       </c>
-      <c r="AB19" s="3" t="n">
+      <c r="AB19" s="4" t="n">
         <v>0.929512122119126</v>
       </c>
-      <c r="AD19" s="3" t="n">
+      <c r="AD19" s="4" t="n">
         <v>4.46484549932826</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF19" s="3" t="n">
+      <c r="AF19" s="4" t="n">
         <v>11.5492957746479</v>
       </c>
-      <c r="AH19" s="3" t="n">
+      <c r="AH19" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="AI19" s="3" t="n">
+      <c r="AI19" s="4" t="n">
         <v>1.03503696560591</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="4" t="n">
         <v>58.8388558482016</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="4" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="4" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="4" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="4" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="4" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AR19" s="3" t="n">
+      <c r="AR19" s="4" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AS19" s="3" t="n">
+      <c r="AS19" s="4" t="n">
         <v>1.23022847100176</v>
       </c>
       <c r="AT19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ19" s="3" t="n">
+      <c r="AZ19" s="4" t="n">
         <v>1.46890061969245</v>
       </c>
-      <c r="BA19" s="3" t="n">
+      <c r="BA19" s="4" t="n">
         <v>57.8392007611798</v>
       </c>
       <c r="BB19" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="BG19" s="3" t="n">
+      <c r="BG19" s="4" t="n">
         <v>47.0383928571429</v>
       </c>
-      <c r="BH19" s="3" t="n">
+      <c r="BH19" s="4" t="n">
         <v>47.0383928571429</v>
       </c>
-      <c r="BK19" s="3" t="n">
+      <c r="BK19" s="4" t="n">
         <v>72.1212121212121</v>
       </c>
       <c r="BM19" s="0" t="n">
@@ -2803,115 +2814,115 @@
       <c r="A20" s="1" t="n">
         <v>44341</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>4.52883263009845</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>4.52883263009845</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4" t="n">
         <v>3.44662155337845</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="4" t="n">
         <v>2.27621483375959</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="4" t="n">
         <v>8.65934449093445</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="4" t="n">
         <v>0.411349027287046</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="4" t="n">
         <v>0.411349027287046</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="N20" s="4" t="n">
         <v>0.0841143955779861</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O20" s="4" t="n">
         <v>0.0841143955779861</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="4" t="n">
         <v>1.97914225451137</v>
       </c>
-      <c r="Q20" s="3" t="n">
+      <c r="Q20" s="4" t="n">
         <v>1.97914225451137</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="R20" s="4" t="n">
         <v>0.887480190174327</v>
       </c>
-      <c r="T20" s="3" t="n">
+      <c r="T20" s="4" t="n">
         <v>3.98175031107424</v>
       </c>
-      <c r="V20" s="3" t="n">
+      <c r="V20" s="4" t="n">
         <v>0.0642523364485981</v>
       </c>
-      <c r="W20" s="3" t="n">
+      <c r="W20" s="4" t="n">
         <v>5.98925092374874</v>
       </c>
-      <c r="AB20" s="3" t="n">
+      <c r="AB20" s="4" t="n">
         <v>0.536582379232229</v>
       </c>
-      <c r="AD20" s="3" t="n">
+      <c r="AD20" s="4" t="n">
         <v>2.57165149544863</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF20" s="3" t="n">
+      <c r="AF20" s="4" t="n">
         <v>59.0601503759399</v>
       </c>
-      <c r="AH20" s="3" t="n">
+      <c r="AH20" s="4" t="n">
         <v>19.6540880503145</v>
       </c>
-      <c r="AI20" s="3" t="n">
+      <c r="AI20" s="4" t="n">
         <v>4.02805611222445</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="4" t="n">
         <v>42.9572719802794</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="4" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="4" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="4" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AO20" s="3" t="n">
+      <c r="AO20" s="4" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AP20" s="3" t="n">
+      <c r="AP20" s="4" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AQ20" s="3" t="n">
+      <c r="AQ20" s="4" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AR20" s="3" t="n">
+      <c r="AR20" s="4" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AS20" s="3" t="n">
+      <c r="AS20" s="4" t="n">
         <v>0.294117647058824</v>
       </c>
       <c r="AT20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AZ20" s="3" t="n">
+      <c r="AZ20" s="4" t="n">
         <v>0.25899764547595</v>
       </c>
-      <c r="BA20" s="3" t="n">
+      <c r="BA20" s="4" t="n">
         <v>51.958174904943</v>
       </c>
       <c r="BB20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BG20" s="3" t="n">
+      <c r="BG20" s="4" t="n">
         <v>20.3025682182986</v>
       </c>
-      <c r="BH20" s="3" t="n">
+      <c r="BH20" s="4" t="n">
         <v>20.3025682182986</v>
       </c>
-      <c r="BK20" s="3" t="n">
+      <c r="BK20" s="4" t="n">
         <v>3.84615384615385</v>
       </c>
       <c r="BM20" s="0" t="n">
@@ -2922,115 +2933,115 @@
       <c r="A21" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>1.46478873239437</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>1.46478873239437</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4" t="n">
         <v>1.18225831641418</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="4" t="n">
         <v>3.4156378600823</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <v>10.4122396940077</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="L21" s="4" t="n">
         <v>0.812386307259798</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="4" t="n">
         <v>0.812386307259798</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N21" s="4" t="n">
         <v>0.37397157816006</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="O21" s="4" t="n">
         <v>0.37397157816006</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="4" t="n">
         <v>3.32439678284182</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="4" t="n">
         <v>3.32439678284182</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="4" t="n">
         <v>0.881666985280061</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="4" t="n">
         <v>0.0471380471380471</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="4" t="n">
         <v>9.9349593495935</v>
       </c>
-      <c r="AB21" s="3" t="n">
+      <c r="AB21" s="4" t="n">
         <v>0.590070757452732</v>
       </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AD21" s="4" t="n">
         <v>1.47817119284978</v>
       </c>
       <c r="AE21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AF21" s="3" t="n">
+      <c r="AF21" s="4" t="n">
         <v>1.93470374848851</v>
       </c>
-      <c r="AH21" s="3" t="n">
+      <c r="AH21" s="4" t="n">
         <v>9.97715156130998</v>
       </c>
-      <c r="AI21" s="3" t="n">
+      <c r="AI21" s="4" t="n">
         <v>0.330013200528021</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="4" t="n">
         <v>14.3075453677173</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="4" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="4" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="4" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="4" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AT21" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="AZ21" s="3" t="n">
+      <c r="AZ21" s="4" t="n">
         <v>0.629072118625028</v>
       </c>
-      <c r="BA21" s="3" t="n">
+      <c r="BA21" s="4" t="n">
         <v>46.2397540983607</v>
       </c>
       <c r="BB21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="BG21" s="3" t="n">
+      <c r="BG21" s="4" t="n">
         <v>18.8385598141696</v>
       </c>
-      <c r="BH21" s="3" t="n">
+      <c r="BH21" s="4" t="n">
         <v>18.8385598141696</v>
       </c>
-      <c r="BK21" s="3" t="n">
+      <c r="BK21" s="4" t="n">
         <v>12</v>
       </c>
       <c r="BM21" s="0" t="n">
@@ -3041,115 +3052,115 @@
       <c r="A22" s="1" t="n">
         <v>44495</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="4" t="n">
         <v>0.760462465396515</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="4" t="n">
         <v>3.4273344254622</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <v>1.59584513692162</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="L22" s="4" t="n">
         <v>0.127424250218633</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="M22" s="4" t="n">
         <v>0.127424250218633</v>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="N22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="n">
+      <c r="O22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="n">
+      <c r="P22" s="4" t="n">
         <v>0.433487012256831</v>
       </c>
-      <c r="Q22" s="3" t="n">
+      <c r="Q22" s="4" t="n">
         <v>0.433487012256831</v>
       </c>
-      <c r="R22" s="3" t="n">
+      <c r="R22" s="4" t="n">
         <v>2.98013245033113</v>
       </c>
-      <c r="T22" s="3" t="n">
+      <c r="T22" s="4" t="n">
         <v>0.933576452201094</v>
       </c>
-      <c r="V22" s="3" t="n">
+      <c r="V22" s="4" t="n">
         <v>8.89436313577742</v>
       </c>
-      <c r="W22" s="3" t="n">
+      <c r="W22" s="4" t="n">
         <v>3.37358784573432</v>
       </c>
-      <c r="AB22" s="3" t="n">
+      <c r="AB22" s="4" t="n">
         <v>0.511047788106694</v>
       </c>
-      <c r="AD22" s="3" t="n">
+      <c r="AD22" s="4" t="n">
         <v>0.30644593166608</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AF22" s="3" t="n">
+      <c r="AF22" s="4" t="n">
         <v>24.2835595776772</v>
       </c>
-      <c r="AH22" s="3" t="n">
+      <c r="AH22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AI22" s="3" t="n">
+      <c r="AI22" s="4" t="n">
         <v>0.428724544480172</v>
       </c>
-      <c r="AK22" s="3" t="n">
+      <c r="AK22" s="4" t="n">
         <v>3.54077253218884</v>
       </c>
-      <c r="AL22" s="3" t="n">
+      <c r="AL22" s="4" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AM22" s="3" t="n">
+      <c r="AM22" s="4" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AN22" s="3" t="n">
+      <c r="AN22" s="4" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AO22" s="3" t="n">
+      <c r="AO22" s="4" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AP22" s="3" t="n">
+      <c r="AP22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AQ22" s="3" t="n">
+      <c r="AQ22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AR22" s="3" t="n">
+      <c r="AR22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AS22" s="3" t="n">
+      <c r="AS22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AT22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ22" s="3" t="n">
+      <c r="AZ22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="BA22" s="3" t="n">
+      <c r="BA22" s="4" t="n">
         <v>8.56756756756757</v>
       </c>
       <c r="BB22" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="BG22" s="3" t="n">
+      <c r="BG22" s="4" t="n">
         <v>2.65946502057613</v>
       </c>
-      <c r="BH22" s="3" t="n">
+      <c r="BH22" s="4" t="n">
         <v>2.65946502057613</v>
       </c>
-      <c r="BK22" s="3" t="n">
+      <c r="BK22" s="4" t="n">
         <v>2.64705882352941</v>
       </c>
       <c r="BM22" s="0" t="n">
@@ -3160,128 +3171,128 @@
       <c r="A23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/EPNM/interim/calibration_data/ERMG_temporary_unemployment.xlsx
+++ b/data/EPNM/interim/calibration_data/ERMG_temporary_unemployment.xlsx
@@ -22,193 +22,193 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74-75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87-88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97-98</t>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E37-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F41-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I55-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J59-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J62-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M69-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N80-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q87-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R90-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T97-98</t>
   </si>
   <si>
     <t xml:space="preserve">BE</t>
@@ -333,15 +333,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,11 +440,11 @@
   </sheetPr>
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BK8" activeCellId="0" sqref="BK8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM1" activeCellId="0" sqref="B1:BM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -473,96 +473,96 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="28.48"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="0" t="s">
@@ -672,115 +672,115 @@
       <c r="A2" s="1" t="n">
         <v>43927</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>3.9080982711556</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>3.9080982711556</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>7.34638666418327</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>68.0466011683484</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>26.289260861388</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>13.5589730660952</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>13.5589730660952</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>15.4948653073374</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>15.4948653073374</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>11.6091182913472</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>11.6091182913472</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>12.6826771653543</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>26.3025585972446</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>57.9941577409932</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>64.017094017094</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>46.3874060841696</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>49.2062337195724</v>
       </c>
       <c r="AE2" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>39.3278325618837</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" s="3" t="n">
         <v>55.2958756724447</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>12.7213660702625</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
         <v>90.5950123660346</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>18.6363390197671</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>18.6363390197671</v>
       </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AN2" s="3" t="n">
         <v>18.6363390197671</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AO2" s="3" t="n">
         <v>18.6363390197671</v>
       </c>
-      <c r="AP2" s="2" t="n">
+      <c r="AP2" s="3" t="n">
         <v>2.18269653052262</v>
       </c>
-      <c r="AQ2" s="2" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>2.18269653052262</v>
       </c>
-      <c r="AR2" s="2" t="n">
+      <c r="AR2" s="3" t="n">
         <v>2.18269653052262</v>
       </c>
-      <c r="AS2" s="2" t="n">
+      <c r="AS2" s="3" t="n">
         <v>38.2369534555712</v>
       </c>
       <c r="AT2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="AZ2" s="2" t="n">
+      <c r="AZ2" s="3" t="n">
         <v>15.2279847586791</v>
       </c>
-      <c r="BA2" s="2" t="n">
+      <c r="BA2" s="3" t="n">
         <v>69.3836126629423</v>
       </c>
-      <c r="BB2" s="2" t="n">
+      <c r="BB2" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="BG2" s="2" t="n">
+      <c r="BG2" s="3" t="n">
         <v>75.9781073446328</v>
       </c>
-      <c r="BH2" s="2" t="n">
+      <c r="BH2" s="3" t="n">
         <v>75.9781073446328</v>
       </c>
-      <c r="BK2" s="2" t="n">
+      <c r="BK2" s="3" t="n">
         <v>93.75</v>
       </c>
       <c r="BM2" s="0" t="n">
@@ -791,115 +791,115 @@
       <c r="A3" s="1" t="n">
         <v>43934</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>9.31558935361217</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>9.31558935361217</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>10.4848255219187</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>53.6026917605865</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>33.6032166843408</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="3" t="n">
         <v>14.3074315234354</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="3" t="n">
         <v>14.3074315234354</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="3" t="n">
         <v>22.6552419354839</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>22.6552419354839</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>18.216676201373</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>18.216676201373</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="3" t="n">
         <v>13.556517311609</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>25.2934851936219</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>55.8377135348226</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>71.1128630705394</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AB3" s="3" t="n">
         <v>40.9707593062606</v>
       </c>
-      <c r="AD3" s="2" t="n">
+      <c r="AD3" s="3" t="n">
         <v>36.2801991262826</v>
       </c>
       <c r="AE3" s="0" t="n">
         <v>40.5</v>
       </c>
-      <c r="AF3" s="2" t="n">
+      <c r="AF3" s="3" t="n">
         <v>83.8322147651007</v>
       </c>
-      <c r="AH3" s="2" t="n">
+      <c r="AH3" s="3" t="n">
         <v>35.1291291291291</v>
       </c>
-      <c r="AI3" s="2" t="n">
+      <c r="AI3" s="3" t="n">
         <v>15.399969813599</v>
       </c>
-      <c r="AK3" s="2" t="n">
+      <c r="AK3" s="3" t="n">
         <v>93.9522858854063</v>
       </c>
-      <c r="AL3" s="2" t="n">
+      <c r="AL3" s="3" t="n">
         <v>13.368566094764</v>
       </c>
-      <c r="AM3" s="2" t="n">
+      <c r="AM3" s="3" t="n">
         <v>13.368566094764</v>
       </c>
-      <c r="AN3" s="2" t="n">
+      <c r="AN3" s="3" t="n">
         <v>13.368566094764</v>
       </c>
-      <c r="AO3" s="2" t="n">
+      <c r="AO3" s="3" t="n">
         <v>13.368566094764</v>
       </c>
-      <c r="AP3" s="2" t="n">
+      <c r="AP3" s="3" t="n">
         <v>3.05974477958237</v>
       </c>
-      <c r="AQ3" s="2" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>3.05974477958237</v>
       </c>
-      <c r="AR3" s="2" t="n">
+      <c r="AR3" s="3" t="n">
         <v>3.05974477958237</v>
       </c>
-      <c r="AS3" s="2" t="n">
+      <c r="AS3" s="3" t="n">
         <v>40.8210784313726</v>
       </c>
       <c r="AT3" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AZ3" s="2" t="n">
+      <c r="AZ3" s="3" t="n">
         <v>16.3126463700234</v>
       </c>
-      <c r="BA3" s="2" t="n">
+      <c r="BA3" s="3" t="n">
         <v>68.4062038404727</v>
       </c>
-      <c r="BB3" s="2" t="n">
+      <c r="BB3" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="BG3" s="2" t="n">
+      <c r="BG3" s="3" t="n">
         <v>72.0974450386215</v>
       </c>
-      <c r="BH3" s="2" t="n">
+      <c r="BH3" s="3" t="n">
         <v>72.0974450386215</v>
       </c>
-      <c r="BK3" s="3" t="n">
+      <c r="BK3" s="4" t="n">
         <v>99</v>
       </c>
       <c r="BM3" s="0" t="n">
@@ -910,115 +910,115 @@
       <c r="A4" s="1" t="n">
         <v>43941</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>10.2578881787853</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>56.610551558753</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>29.3082593082593</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <v>7.54003768252473</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="3" t="n">
         <v>7.54003768252473</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="3" t="n">
         <v>10.9098712446352</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>10.9098712446352</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>17.522175058548</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>17.522175058548</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="3" t="n">
         <v>31.7219313554392</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>24.8058303576655</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>60.5152671755725</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>63.489898989899</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="3" t="n">
         <v>32.7475278542047</v>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AD4" s="3" t="n">
         <v>39.7187289845326</v>
       </c>
       <c r="AE4" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="AF4" s="2" t="n">
+      <c r="AF4" s="3" t="n">
         <v>73.9169675090253</v>
       </c>
-      <c r="AH4" s="2" t="n">
+      <c r="AH4" s="3" t="n">
         <v>73.8792045175546</v>
       </c>
-      <c r="AI4" s="2" t="n">
+      <c r="AI4" s="3" t="n">
         <v>10.6421461519786</v>
       </c>
-      <c r="AK4" s="2" t="n">
+      <c r="AK4" s="3" t="n">
         <v>89.7854880506766</v>
       </c>
-      <c r="AL4" s="2" t="n">
+      <c r="AL4" s="3" t="n">
         <v>12.0255977130977</v>
       </c>
-      <c r="AM4" s="2" t="n">
+      <c r="AM4" s="3" t="n">
         <v>12.0255977130977</v>
       </c>
-      <c r="AN4" s="2" t="n">
+      <c r="AN4" s="3" t="n">
         <v>12.0255977130977</v>
       </c>
-      <c r="AO4" s="2" t="n">
+      <c r="AO4" s="3" t="n">
         <v>12.0255977130977</v>
       </c>
-      <c r="AP4" s="2" t="n">
+      <c r="AP4" s="3" t="n">
         <v>2.99081885856079</v>
       </c>
-      <c r="AQ4" s="2" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>2.99081885856079</v>
       </c>
-      <c r="AR4" s="2" t="n">
+      <c r="AR4" s="3" t="n">
         <v>2.99081885856079</v>
       </c>
-      <c r="AS4" s="2" t="n">
+      <c r="AS4" s="3" t="n">
         <v>25.5776587605203</v>
       </c>
       <c r="AT4" s="0" t="n">
         <v>22.5</v>
       </c>
-      <c r="AZ4" s="2" t="n">
+      <c r="AZ4" s="3" t="n">
         <v>25.7773885970033</v>
       </c>
-      <c r="BA4" s="2" t="n">
+      <c r="BA4" s="3" t="n">
         <v>67.0443548387097</v>
       </c>
       <c r="BB4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="BG4" s="2" t="n">
+      <c r="BG4" s="3" t="n">
         <v>75.5551839464883</v>
       </c>
-      <c r="BH4" s="2" t="n">
+      <c r="BH4" s="3" t="n">
         <v>75.5551839464883</v>
       </c>
-      <c r="BK4" s="2" t="n">
+      <c r="BK4" s="3" t="n">
         <v>96.6473988439306</v>
       </c>
       <c r="BM4" s="0" t="n">
@@ -1029,115 +1029,115 @@
       <c r="A5" s="1" t="n">
         <v>43948</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>2.40174672489083</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>2.40174672489083</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>7.60933228302674</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>35.6423854312587</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>27.5477565526433</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="3" t="n">
         <v>7.5998538088028</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="3" t="n">
         <v>7.5998538088028</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="3" t="n">
         <v>14.098730606488</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>14.098730606488</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>26.0739764540503</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>26.0739764540503</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="3" t="n">
         <v>20.9055374592834</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>17.7073473367012</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>39.0384615384615</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>48.088565763384</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="3" t="n">
         <v>27.786044941653</v>
       </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AD5" s="3" t="n">
         <v>33.9697585195215</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="AF5" s="2" t="n">
+      <c r="AF5" s="3" t="n">
         <v>47.7285129604366</v>
       </c>
-      <c r="AH5" s="2" t="n">
+      <c r="AH5" s="3" t="n">
         <v>53.5261707988981</v>
       </c>
-      <c r="AI5" s="2" t="n">
+      <c r="AI5" s="3" t="n">
         <v>9.6317042431032</v>
       </c>
-      <c r="AK5" s="2" t="n">
+      <c r="AK5" s="3" t="n">
         <v>79.9562965360958</v>
       </c>
-      <c r="AL5" s="2" t="n">
+      <c r="AL5" s="3" t="n">
         <v>9.25930695387497</v>
       </c>
-      <c r="AM5" s="2" t="n">
+      <c r="AM5" s="3" t="n">
         <v>9.25930695387497</v>
       </c>
-      <c r="AN5" s="2" t="n">
+      <c r="AN5" s="3" t="n">
         <v>9.25930695387497</v>
       </c>
-      <c r="AO5" s="2" t="n">
+      <c r="AO5" s="3" t="n">
         <v>9.25930695387497</v>
       </c>
-      <c r="AP5" s="2" t="n">
+      <c r="AP5" s="3" t="n">
         <v>3.10234305923961</v>
       </c>
-      <c r="AQ5" s="2" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>3.10234305923961</v>
       </c>
-      <c r="AR5" s="2" t="n">
+      <c r="AR5" s="3" t="n">
         <v>3.10234305923961</v>
       </c>
-      <c r="AS5" s="2" t="n">
+      <c r="AS5" s="3" t="n">
         <v>20.3400503778338</v>
       </c>
       <c r="AT5" s="0" t="n">
         <v>21.5</v>
       </c>
-      <c r="AZ5" s="2" t="n">
+      <c r="AZ5" s="3" t="n">
         <v>40.8625218914186</v>
       </c>
-      <c r="BA5" s="2" t="n">
+      <c r="BA5" s="3" t="n">
         <v>72.2727272727273</v>
       </c>
       <c r="BB5" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="BG5" s="2" t="n">
+      <c r="BG5" s="3" t="n">
         <v>86.094867807154</v>
       </c>
-      <c r="BH5" s="2" t="n">
+      <c r="BH5" s="3" t="n">
         <v>86.094867807154</v>
       </c>
-      <c r="BK5" s="3" t="n">
+      <c r="BK5" s="4" t="n">
         <v>99</v>
       </c>
       <c r="BM5" s="0" t="n">
@@ -1148,115 +1148,115 @@
       <c r="A6" s="1" t="n">
         <v>43956</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.948012232415902</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.948012232415902</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>12.8854460634683</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>58.2811101163832</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>22.4378304288232</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="3" t="n">
         <v>6.35616819827346</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="3" t="n">
         <v>6.35616819827346</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="3" t="n">
         <v>10.2565982404692</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>10.2565982404692</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>27.2483243419977</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="3" t="n">
         <v>27.2483243419977</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="3" t="n">
         <v>9.28507194244604</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>12.564135734899</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>26.9298245614035</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>27.0642933049947</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="3" t="n">
         <v>19.4637941352484</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AD6" s="3" t="n">
         <v>28.2089723048753</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AF6" s="3" t="n">
         <v>85.2683896620278</v>
       </c>
-      <c r="AH6" s="2" t="n">
+      <c r="AH6" s="3" t="n">
         <v>3.41614906832298</v>
       </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AI6" s="3" t="n">
         <v>23.2254454293133</v>
       </c>
-      <c r="AK6" s="2" t="n">
+      <c r="AK6" s="3" t="n">
         <v>67.2990835878923</v>
       </c>
-      <c r="AL6" s="2" t="n">
+      <c r="AL6" s="3" t="n">
         <v>12.7626836706404</v>
       </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AM6" s="3" t="n">
         <v>12.7626836706404</v>
       </c>
-      <c r="AN6" s="2" t="n">
+      <c r="AN6" s="3" t="n">
         <v>12.7626836706404</v>
       </c>
-      <c r="AO6" s="2" t="n">
+      <c r="AO6" s="3" t="n">
         <v>12.7626836706404</v>
       </c>
-      <c r="AP6" s="2" t="n">
+      <c r="AP6" s="3" t="n">
         <v>0.86105675146771</v>
       </c>
-      <c r="AQ6" s="2" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>0.86105675146771</v>
       </c>
-      <c r="AR6" s="2" t="n">
+      <c r="AR6" s="3" t="n">
         <v>0.86105675146771</v>
       </c>
-      <c r="AS6" s="2" t="n">
+      <c r="AS6" s="3" t="n">
         <v>20.8742004264392</v>
       </c>
       <c r="AT6" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AZ6" s="2" t="n">
+      <c r="AZ6" s="3" t="n">
         <v>31.7787456445993</v>
       </c>
-      <c r="BA6" s="2" t="n">
+      <c r="BA6" s="3" t="n">
         <v>80.3618113912232</v>
       </c>
       <c r="BB6" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="BG6" s="2" t="n">
+      <c r="BG6" s="3" t="n">
         <v>85.1504787961696</v>
       </c>
-      <c r="BH6" s="2" t="n">
+      <c r="BH6" s="3" t="n">
         <v>85.1504787961696</v>
       </c>
-      <c r="BK6" s="3" t="n">
+      <c r="BK6" s="4" t="n">
         <v>99</v>
       </c>
       <c r="BM6" s="0" t="n">
@@ -1267,115 +1267,115 @@
       <c r="A7" s="1" t="n">
         <v>43963</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>8.58895705521472</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>8.58895705521472</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>8.20879826603516</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>47.9397221568166</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>16.7703670546106</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="3" t="n">
         <v>2.70308665891773</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="3" t="n">
         <v>2.70308665891773</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="3" t="n">
         <v>10.7088082901554</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="3" t="n">
         <v>10.7088082901554</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>15.0924427376217</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>15.0924427376217</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="3" t="n">
         <v>22.9069103369503</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>19.7286733238231</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>35.2858837485172</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>23.6488970588235</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AB7" s="3" t="n">
         <v>16.6987968662563</v>
       </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AD7" s="3" t="n">
         <v>28.9406925578726</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>22.5</v>
       </c>
-      <c r="AF7" s="2" t="n">
+      <c r="AF7" s="3" t="n">
         <v>51.830229226361</v>
       </c>
-      <c r="AH7" s="2" t="n">
+      <c r="AH7" s="3" t="n">
         <v>77.2869565217391</v>
       </c>
-      <c r="AI7" s="2" t="n">
+      <c r="AI7" s="3" t="n">
         <v>5.42888272583201</v>
       </c>
-      <c r="AK7" s="2" t="n">
+      <c r="AK7" s="3" t="n">
         <v>91.4347826086957</v>
       </c>
-      <c r="AL7" s="2" t="n">
+      <c r="AL7" s="3" t="n">
         <v>14.3747013142174</v>
       </c>
-      <c r="AM7" s="2" t="n">
+      <c r="AM7" s="3" t="n">
         <v>14.3747013142174</v>
       </c>
-      <c r="AN7" s="2" t="n">
+      <c r="AN7" s="3" t="n">
         <v>14.3747013142174</v>
       </c>
-      <c r="AO7" s="2" t="n">
+      <c r="AO7" s="3" t="n">
         <v>14.3747013142174</v>
       </c>
-      <c r="AP7" s="2" t="n">
+      <c r="AP7" s="3" t="n">
         <v>0.325188961153103</v>
       </c>
-      <c r="AQ7" s="2" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>0.325188961153103</v>
       </c>
-      <c r="AR7" s="2" t="n">
+      <c r="AR7" s="3" t="n">
         <v>0.325188961153103</v>
       </c>
-      <c r="AS7" s="2" t="n">
+      <c r="AS7" s="3" t="n">
         <v>0.582554517133956</v>
       </c>
       <c r="AT7" s="0" t="n">
         <v>17.5</v>
       </c>
-      <c r="AZ7" s="2" t="n">
+      <c r="AZ7" s="3" t="n">
         <v>27.3467289719626</v>
       </c>
-      <c r="BA7" s="2" t="n">
+      <c r="BA7" s="3" t="n">
         <v>79.7322580645161</v>
       </c>
       <c r="BB7" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="BG7" s="2" t="n">
+      <c r="BG7" s="3" t="n">
         <v>84.0239520958084</v>
       </c>
-      <c r="BH7" s="2" t="n">
+      <c r="BH7" s="3" t="n">
         <v>84.0239520958084</v>
       </c>
-      <c r="BK7" s="3" t="n">
+      <c r="BK7" s="4" t="n">
         <v>99</v>
       </c>
       <c r="BM7" s="0" t="n">
@@ -1386,115 +1386,115 @@
       <c r="A8" s="1" t="n">
         <v>43977</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>7.67684887459807</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>7.67684887459807</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>8.74894555214724</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>51.2576478585996</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>16.5969084423306</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="3" t="n">
         <v>6.17771317829457</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="3" t="n">
         <v>6.17771317829457</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="3" t="n">
         <v>7.8881469115192</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="3" t="n">
         <v>7.8881469115192</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>22.9607072691552</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>22.9607072691552</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="3" t="n">
         <v>13.0522088353414</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>15.5289115646259</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>4.08917197452229</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>30.9233321046812</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="3" t="n">
         <v>11.1446520910823</v>
       </c>
-      <c r="AD8" s="2" t="n">
+      <c r="AD8" s="3" t="n">
         <v>18.5118959107807</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF8" s="2" t="n">
+      <c r="AF8" s="3" t="n">
         <v>20.9970530451866</v>
       </c>
-      <c r="AH8" s="2" t="n">
+      <c r="AH8" s="3" t="n">
         <v>78.0828114126653</v>
       </c>
-      <c r="AI8" s="2" t="n">
+      <c r="AI8" s="3" t="n">
         <v>7.89551391254969</v>
       </c>
-      <c r="AK8" s="2" t="n">
+      <c r="AK8" s="3" t="n">
         <v>88.9232649071359</v>
       </c>
-      <c r="AL8" s="2" t="n">
+      <c r="AL8" s="3" t="n">
         <v>12.0110914454277</v>
       </c>
-      <c r="AM8" s="2" t="n">
+      <c r="AM8" s="3" t="n">
         <v>12.0110914454277</v>
       </c>
-      <c r="AN8" s="2" t="n">
+      <c r="AN8" s="3" t="n">
         <v>12.0110914454277</v>
       </c>
-      <c r="AO8" s="2" t="n">
+      <c r="AO8" s="3" t="n">
         <v>12.0110914454277</v>
       </c>
-      <c r="AP8" s="2" t="n">
+      <c r="AP8" s="3" t="n">
         <v>4.56997084548105</v>
       </c>
-      <c r="AQ8" s="2" t="n">
+      <c r="AQ8" s="3" t="n">
         <v>4.56997084548105</v>
       </c>
-      <c r="AR8" s="2" t="n">
+      <c r="AR8" s="3" t="n">
         <v>4.56997084548105</v>
       </c>
-      <c r="AS8" s="2" t="n">
+      <c r="AS8" s="3" t="n">
         <v>16.6420454545455</v>
       </c>
       <c r="AT8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="AZ8" s="2" t="n">
+      <c r="AZ8" s="3" t="n">
         <v>10.7391056679009</v>
       </c>
-      <c r="BA8" s="2" t="n">
+      <c r="BA8" s="3" t="n">
         <v>79.131090487239</v>
       </c>
       <c r="BB8" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="BG8" s="2" t="n">
+      <c r="BG8" s="3" t="n">
         <v>78.0828114126653</v>
       </c>
-      <c r="BH8" s="2" t="n">
+      <c r="BH8" s="3" t="n">
         <v>78.0828114126653</v>
       </c>
-      <c r="BK8" s="2" t="n">
+      <c r="BK8" s="3" t="n">
         <v>5.41871921182266</v>
       </c>
       <c r="BM8" s="0" t="n">
@@ -1505,115 +1505,115 @@
       <c r="A9" s="1" t="n">
         <v>43991</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>8.42859280317199</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>34.3144815766924</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>18.0283400809717</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="3" t="n">
         <v>3.38678606757953</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="3" t="n">
         <v>3.38678606757953</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="N9" s="3" t="n">
         <v>7.23997217713888</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="3" t="n">
         <v>7.23997217713888</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>14.0607670380928</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="3" t="n">
         <v>14.0607670380928</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" s="3" t="n">
         <v>2.8516057585825</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>7.25635174197475</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>2.83656672545561</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>7.94493608652901</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AB9" s="3" t="n">
         <v>4.03172687912556</v>
       </c>
-      <c r="AD9" s="2" t="n">
+      <c r="AD9" s="3" t="n">
         <v>23.8415525970373</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="AF9" s="2" t="n">
+      <c r="AF9" s="3" t="n">
         <v>11.3009708737864</v>
       </c>
-      <c r="AH9" s="2" t="n">
+      <c r="AH9" s="3" t="n">
         <v>43.7956204379562</v>
       </c>
-      <c r="AI9" s="2" t="n">
+      <c r="AI9" s="3" t="n">
         <v>17.3990729034977</v>
       </c>
-      <c r="AK9" s="2" t="n">
+      <c r="AK9" s="3" t="n">
         <v>47.615</v>
       </c>
-      <c r="AL9" s="2" t="n">
+      <c r="AL9" s="3" t="n">
         <v>9.15360501567398</v>
       </c>
-      <c r="AM9" s="2" t="n">
+      <c r="AM9" s="3" t="n">
         <v>9.15360501567398</v>
       </c>
-      <c r="AN9" s="2" t="n">
+      <c r="AN9" s="3" t="n">
         <v>9.15360501567398</v>
       </c>
-      <c r="AO9" s="2" t="n">
+      <c r="AO9" s="3" t="n">
         <v>9.15360501567398</v>
       </c>
-      <c r="AP9" s="2" t="n">
+      <c r="AP9" s="3" t="n">
         <v>0.59248999692213</v>
       </c>
-      <c r="AQ9" s="2" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>0.59248999692213</v>
       </c>
-      <c r="AR9" s="2" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0.59248999692213</v>
       </c>
-      <c r="AS9" s="2" t="n">
+      <c r="AS9" s="3" t="n">
         <v>1.73817381738174</v>
       </c>
       <c r="AT9" s="0" t="n">
         <v>18.5</v>
       </c>
-      <c r="AZ9" s="2" t="n">
+      <c r="AZ9" s="3" t="n">
         <v>18.1784083496412</v>
       </c>
-      <c r="BA9" s="2" t="n">
+      <c r="BA9" s="3" t="n">
         <v>81.13074204947</v>
       </c>
       <c r="BB9" s="0" t="n">
         <v>13.5</v>
       </c>
-      <c r="BG9" s="2" t="n">
+      <c r="BG9" s="3" t="n">
         <v>79.9543378995434</v>
       </c>
-      <c r="BH9" s="2" t="n">
+      <c r="BH9" s="3" t="n">
         <v>79.9543378995434</v>
       </c>
-      <c r="BK9" s="2" t="n">
+      <c r="BK9" s="3" t="n">
         <v>5.66666666666667</v>
       </c>
       <c r="BM9" s="0" t="n">
@@ -1624,115 +1624,115 @@
       <c r="A10" s="1" t="n">
         <v>44005</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>7.39148205673179</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>20.7249338783361</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <v>16.1361283643892</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="3" t="n">
         <v>6.02249334739168</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="3" t="n">
         <v>6.02249334739168</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" s="3" t="n">
         <v>11.205957137668</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>11.205957137668</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>24.2394978271366</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>24.2394978271366</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" s="3" t="n">
         <v>10.7162346521146</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>10.1318353694008</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>3.20905459387483</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>4.67723669309173</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AB10" s="3" t="n">
         <v>2.5402331054578</v>
       </c>
-      <c r="AD10" s="2" t="n">
+      <c r="AD10" s="3" t="n">
         <v>17.97997997998</v>
       </c>
       <c r="AE10" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="AF10" s="2" t="n">
+      <c r="AF10" s="3" t="n">
         <v>17.3093841642229</v>
       </c>
-      <c r="AH10" s="2" t="n">
+      <c r="AH10" s="3" t="n">
         <v>11.1323155216285</v>
       </c>
-      <c r="AI10" s="2" t="n">
+      <c r="AI10" s="3" t="n">
         <v>21.0933857808858</v>
       </c>
-      <c r="AK10" s="2" t="n">
+      <c r="AK10" s="3" t="n">
         <v>38.3915745856354</v>
       </c>
-      <c r="AL10" s="2" t="n">
+      <c r="AL10" s="3" t="n">
         <v>7.57347400150716</v>
       </c>
-      <c r="AM10" s="2" t="n">
+      <c r="AM10" s="3" t="n">
         <v>7.57347400150716</v>
       </c>
-      <c r="AN10" s="2" t="n">
+      <c r="AN10" s="3" t="n">
         <v>7.57347400150716</v>
       </c>
-      <c r="AO10" s="2" t="n">
+      <c r="AO10" s="3" t="n">
         <v>7.57347400150716</v>
       </c>
-      <c r="AP10" s="2" t="n">
+      <c r="AP10" s="3" t="n">
         <v>0.134913400182315</v>
       </c>
-      <c r="AQ10" s="2" t="n">
+      <c r="AQ10" s="3" t="n">
         <v>0.134913400182315</v>
       </c>
-      <c r="AR10" s="2" t="n">
+      <c r="AR10" s="3" t="n">
         <v>0.134913400182315</v>
       </c>
-      <c r="AS10" s="2" t="n">
+      <c r="AS10" s="3" t="n">
         <v>12.2286821705426</v>
       </c>
       <c r="AT10" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="AZ10" s="2" t="n">
+      <c r="AZ10" s="3" t="n">
         <v>3.24641460234681</v>
       </c>
-      <c r="BA10" s="2" t="n">
+      <c r="BA10" s="3" t="n">
         <v>73.6072261072261</v>
       </c>
       <c r="BB10" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="BG10" s="2" t="n">
+      <c r="BG10" s="3" t="n">
         <v>72.0155677655678</v>
       </c>
-      <c r="BH10" s="2" t="n">
+      <c r="BH10" s="3" t="n">
         <v>72.0155677655678</v>
       </c>
-      <c r="BK10" s="2" t="n">
+      <c r="BK10" s="3" t="n">
         <v>10</v>
       </c>
       <c r="BM10" s="0" t="n">
@@ -1743,115 +1743,115 @@
       <c r="A11" s="1" t="n">
         <v>44061</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="2" t="n">
         <v>2.13016475459329</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="2" t="n">
         <v>6.89846047396644</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="2" t="n">
         <v>7.71592225511649</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="2" t="n">
         <v>2.36923831317424</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="2" t="n">
         <v>2.36923831317424</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="2" t="n">
         <v>3.19303875586275</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="2" t="n">
         <v>3.19303875586275</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="2" t="n">
         <v>13.650054433289</v>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="Q11" s="2" t="n">
         <v>13.650054433289</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="2" t="n">
         <v>5.11772400261609</v>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="T11" s="2" t="n">
         <v>5.7856001762794</v>
       </c>
-      <c r="V11" s="4" t="n">
+      <c r="V11" s="2" t="n">
         <v>0.206896551724138</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="2" t="n">
         <v>1.25789309159112</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="2" t="n">
         <v>3.12566817256958</v>
       </c>
-      <c r="AD11" s="4" t="n">
+      <c r="AD11" s="2" t="n">
         <v>3.26595358955765</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="AF11" s="4" t="n">
+      <c r="AF11" s="2" t="n">
         <v>2.88738019169329</v>
       </c>
-      <c r="AH11" s="4" t="n">
+      <c r="AH11" s="2" t="n">
         <v>4.57259585166562</v>
       </c>
-      <c r="AI11" s="4" t="n">
+      <c r="AI11" s="2" t="n">
         <v>3.21170892599464</v>
       </c>
-      <c r="AK11" s="4" t="n">
+      <c r="AK11" s="2" t="n">
         <v>24.4617773530817</v>
       </c>
-      <c r="AL11" s="4" t="n">
+      <c r="AL11" s="2" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AM11" s="4" t="n">
+      <c r="AM11" s="2" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AN11" s="4" t="n">
+      <c r="AN11" s="2" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AO11" s="4" t="n">
+      <c r="AO11" s="2" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AP11" s="4" t="n">
+      <c r="AP11" s="2" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AQ11" s="4" t="n">
+      <c r="AQ11" s="2" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AR11" s="4" t="n">
+      <c r="AR11" s="2" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AS11" s="4" t="n">
+      <c r="AS11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AT11" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="AZ11" s="4" t="n">
+      <c r="AZ11" s="2" t="n">
         <v>12.8867046042421</v>
       </c>
-      <c r="BA11" s="4" t="n">
+      <c r="BA11" s="2" t="n">
         <v>69.2809642560266</v>
       </c>
       <c r="BB11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="BG11" s="4" t="n">
+      <c r="BG11" s="2" t="n">
         <v>60.1125509070715</v>
       </c>
-      <c r="BH11" s="4" t="n">
+      <c r="BH11" s="2" t="n">
         <v>60.1125509070715</v>
       </c>
-      <c r="BK11" s="4" t="n">
+      <c r="BK11" s="2" t="n">
         <v>10.8428571428571</v>
       </c>
       <c r="BM11" s="0" t="n">
@@ -1862,115 +1862,115 @@
       <c r="A12" s="1" t="n">
         <v>44096</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="2" t="n">
         <v>1.49253731343284</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="2" t="n">
         <v>1.49253731343284</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="2" t="n">
         <v>1.94863204913456</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="2" t="n">
         <v>6.05306859205776</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="2" t="n">
         <v>8.5968914514916</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="2" t="n">
         <v>1.4736697468311</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="2" t="n">
         <v>1.4736697468311</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="2" t="n">
         <v>7.60351583183311</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="2" t="n">
         <v>7.60351583183311</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="2" t="n">
         <v>10.4502740798747</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="2" t="n">
         <v>10.4502740798747</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="2" t="n">
         <v>3.61459265890779</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="2" t="n">
         <v>2.61707078128827</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="2" t="n">
         <v>1.40167364016736</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="2" t="n">
         <v>2.03678779721848</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="2" t="n">
         <v>2.46416596814753</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="2" t="n">
         <v>4.25445705024311</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF12" s="4" t="n">
+      <c r="AF12" s="2" t="n">
         <v>8.63859516616314</v>
       </c>
-      <c r="AH12" s="4" t="n">
+      <c r="AH12" s="2" t="n">
         <v>1.46396396396396</v>
       </c>
-      <c r="AI12" s="4" t="n">
+      <c r="AI12" s="2" t="n">
         <v>5.57336523125997</v>
       </c>
-      <c r="AK12" s="4" t="n">
+      <c r="AK12" s="2" t="n">
         <v>34.2603795966785</v>
       </c>
-      <c r="AL12" s="4" t="n">
+      <c r="AL12" s="2" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AM12" s="4" t="n">
+      <c r="AM12" s="2" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AN12" s="4" t="n">
+      <c r="AN12" s="2" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AO12" s="4" t="n">
+      <c r="AO12" s="2" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AP12" s="4" t="n">
+      <c r="AP12" s="2" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AQ12" s="4" t="n">
+      <c r="AQ12" s="2" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AR12" s="4" t="n">
+      <c r="AR12" s="2" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AS12" s="4" t="n">
+      <c r="AS12" s="2" t="n">
         <v>15.5844155844156</v>
       </c>
       <c r="AT12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AZ12" s="4" t="n">
+      <c r="AZ12" s="2" t="n">
         <v>0.855285376561972</v>
       </c>
-      <c r="BA12" s="4" t="n">
+      <c r="BA12" s="2" t="n">
         <v>63.2489959839357</v>
       </c>
       <c r="BB12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG12" s="4" t="n">
+      <c r="BG12" s="2" t="n">
         <v>58.4554991539763</v>
       </c>
-      <c r="BH12" s="4" t="n">
+      <c r="BH12" s="2" t="n">
         <v>58.4554991539763</v>
       </c>
-      <c r="BK12" s="4" t="n">
+      <c r="BK12" s="2" t="n">
         <v>11.0077519379845</v>
       </c>
       <c r="BM12" s="0" t="n">
@@ -1981,115 +1981,115 @@
       <c r="A13" s="1" t="n">
         <v>44124</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="2" t="n">
         <v>1.60599571734475</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="2" t="n">
         <v>1.60599571734475</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="2" t="n">
         <v>2.5197358713295</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="2" t="n">
         <v>10.9812082405345</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="2" t="n">
         <v>5.37081189609738</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="2" t="n">
         <v>1.63052661222191</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="2" t="n">
         <v>1.63052661222191</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="2" t="n">
         <v>0.49580472921434</v>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="O13" s="2" t="n">
         <v>0.49580472921434</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="2" t="n">
         <v>9.38970171260066</v>
       </c>
-      <c r="Q13" s="4" t="n">
+      <c r="Q13" s="2" t="n">
         <v>9.38970171260066</v>
       </c>
-      <c r="R13" s="4" t="n">
+      <c r="R13" s="2" t="n">
         <v>0.862405805191181</v>
       </c>
-      <c r="T13" s="4" t="n">
+      <c r="T13" s="2" t="n">
         <v>6.54495696498705</v>
       </c>
-      <c r="V13" s="4" t="n">
+      <c r="V13" s="2" t="n">
         <v>3.16375601113642</v>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="W13" s="2" t="n">
         <v>5.8028028028028</v>
       </c>
-      <c r="AB13" s="4" t="n">
+      <c r="AB13" s="2" t="n">
         <v>2.3671096345515</v>
       </c>
-      <c r="AD13" s="4" t="n">
+      <c r="AD13" s="2" t="n">
         <v>6.0143286750398</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF13" s="4" t="n">
+      <c r="AF13" s="2" t="n">
         <v>10.8547655068079</v>
       </c>
-      <c r="AH13" s="4" t="n">
+      <c r="AH13" s="2" t="n">
         <v>5.62756876383181</v>
       </c>
-      <c r="AI13" s="4" t="n">
+      <c r="AI13" s="2" t="n">
         <v>3.54660207120316</v>
       </c>
-      <c r="AK13" s="4" t="n">
+      <c r="AK13" s="2" t="n">
         <v>59.5436218282934</v>
       </c>
-      <c r="AL13" s="4" t="n">
+      <c r="AL13" s="2" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AM13" s="4" t="n">
+      <c r="AM13" s="2" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AN13" s="4" t="n">
+      <c r="AN13" s="2" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AO13" s="4" t="n">
+      <c r="AO13" s="2" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AP13" s="4" t="n">
+      <c r="AP13" s="2" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AQ13" s="4" t="n">
+      <c r="AQ13" s="2" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AR13" s="4" t="n">
+      <c r="AR13" s="2" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AS13" s="4" t="n">
+      <c r="AS13" s="2" t="n">
         <v>2.73556231003039</v>
       </c>
       <c r="AT13" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="AZ13" s="4" t="n">
+      <c r="AZ13" s="2" t="n">
         <v>4.66833890746934</v>
       </c>
-      <c r="BA13" s="4" t="n">
+      <c r="BA13" s="2" t="n">
         <v>68.5383064516129</v>
       </c>
       <c r="BB13" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="BG13" s="4" t="n">
+      <c r="BG13" s="2" t="n">
         <v>61.3140333660452</v>
       </c>
-      <c r="BH13" s="4" t="n">
+      <c r="BH13" s="2" t="n">
         <v>61.3140333660452</v>
       </c>
-      <c r="BK13" s="4" t="n">
+      <c r="BK13" s="2" t="n">
         <v>14.7250859106529</v>
       </c>
       <c r="BM13" s="0" t="n">
@@ -2100,115 +2100,115 @@
       <c r="A14" s="1" t="n">
         <v>44145</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="2" t="n">
         <v>5.33536585365854</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="2" t="n">
         <v>5.33536585365854</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="2" t="n">
         <v>3.39375629405841</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="2" t="n">
         <v>7.76861451460886</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="2" t="n">
         <v>4.5785726113595</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="2" t="n">
         <v>0.953167839940719</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="2" t="n">
         <v>0.953167839940719</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="2" t="n">
         <v>1.82595680992089</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="2" t="n">
         <v>1.82595680992089</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="2" t="n">
         <v>6.34461487162388</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="2" t="n">
         <v>6.34461487162388</v>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="R14" s="2" t="n">
         <v>2.57590841214535</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="2" t="n">
         <v>8.26009713701431</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="2" t="n">
         <v>5.71321038765525</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="2" t="n">
         <v>4.35640606767795</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="2" t="n">
         <v>8.82039781591264</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>23.5</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AF14" s="2" t="n">
         <v>6.03728813559322</v>
       </c>
-      <c r="AH14" s="4" t="n">
+      <c r="AH14" s="2" t="n">
         <v>1.14823348694316</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="2" t="n">
         <v>2.1379726468222</v>
       </c>
-      <c r="AK14" s="4" t="n">
+      <c r="AK14" s="2" t="n">
         <v>70.0507767215395</v>
       </c>
-      <c r="AL14" s="4" t="n">
+      <c r="AL14" s="2" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AM14" s="4" t="n">
+      <c r="AM14" s="2" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AN14" s="4" t="n">
+      <c r="AN14" s="2" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AO14" s="4" t="n">
+      <c r="AO14" s="2" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AP14" s="4" t="n">
+      <c r="AP14" s="2" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AQ14" s="4" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AR14" s="4" t="n">
+      <c r="AR14" s="2" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AS14" s="4" t="n">
+      <c r="AS14" s="2" t="n">
         <v>7.16452991452992</v>
       </c>
       <c r="AT14" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="AZ14" s="4" t="n">
+      <c r="AZ14" s="2" t="n">
         <v>4.8155737704918</v>
       </c>
-      <c r="BA14" s="4" t="n">
+      <c r="BA14" s="2" t="n">
         <v>45.3097893432466</v>
       </c>
       <c r="BB14" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="BG14" s="4" t="n">
+      <c r="BG14" s="2" t="n">
         <v>57.003164556962</v>
       </c>
-      <c r="BH14" s="4" t="n">
+      <c r="BH14" s="2" t="n">
         <v>57.003164556962</v>
       </c>
-      <c r="BK14" s="4" t="n">
+      <c r="BK14" s="2" t="n">
         <v>85.2494802494803</v>
       </c>
       <c r="BM14" s="0" t="n">
@@ -2219,115 +2219,115 @@
       <c r="A15" s="1" t="n">
         <v>44173</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.660660660660661</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="2" t="n">
         <v>0.660660660660661</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="2" t="n">
         <v>2.20662170447578</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="2" t="n">
         <v>9.02056074766355</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="2" t="n">
         <v>5.65770736917052</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="2" t="n">
         <v>0.890104841067625</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="2" t="n">
         <v>0.890104841067625</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="2" t="n">
         <v>5.34887924801157</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="2" t="n">
         <v>5.34887924801157</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="2" t="n">
         <v>3.67263901777429</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="Q15" s="2" t="n">
         <v>3.67263901777429</v>
       </c>
-      <c r="R15" s="4" t="n">
+      <c r="R15" s="2" t="n">
         <v>1.04982206405694</v>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="T15" s="2" t="n">
         <v>5.83274647887324</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="2" t="n">
         <v>4.31769340974212</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="2" t="n">
         <v>9.5592485549133</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="2" t="n">
         <v>2.18907579198583</v>
       </c>
-      <c r="AD15" s="4" t="n">
+      <c r="AD15" s="2" t="n">
         <v>9.94964219454015</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="2" t="n">
         <v>6.11378205128205</v>
       </c>
-      <c r="AH15" s="4" t="n">
+      <c r="AH15" s="2" t="n">
         <v>54.6974608319827</v>
       </c>
-      <c r="AI15" s="4" t="n">
+      <c r="AI15" s="2" t="n">
         <v>2.40375885236971</v>
       </c>
-      <c r="AK15" s="4" t="n">
+      <c r="AK15" s="2" t="n">
         <v>72.8987194412107</v>
       </c>
-      <c r="AL15" s="4" t="n">
+      <c r="AL15" s="2" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AM15" s="4" t="n">
+      <c r="AM15" s="2" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AN15" s="4" t="n">
+      <c r="AN15" s="2" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AO15" s="4" t="n">
+      <c r="AO15" s="2" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AP15" s="4" t="n">
+      <c r="AP15" s="2" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AQ15" s="4" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AR15" s="4" t="n">
+      <c r="AR15" s="2" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AS15" s="4" t="n">
+      <c r="AS15" s="2" t="n">
         <v>5.74538258575198</v>
       </c>
       <c r="AT15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AZ15" s="4" t="n">
+      <c r="AZ15" s="2" t="n">
         <v>1.99570815450644</v>
       </c>
-      <c r="BA15" s="4" t="n">
+      <c r="BA15" s="2" t="n">
         <v>64.6815286624204</v>
       </c>
       <c r="BB15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="BG15" s="4" t="n">
+      <c r="BG15" s="2" t="n">
         <v>62.4537444933921</v>
       </c>
-      <c r="BH15" s="4" t="n">
+      <c r="BH15" s="2" t="n">
         <v>62.4537444933921</v>
       </c>
-      <c r="BK15" s="4" t="n">
+      <c r="BK15" s="2" t="n">
         <v>83.4959742351047</v>
       </c>
       <c r="BM15" s="0" t="n">
@@ -2338,115 +2338,115 @@
       <c r="A16" s="1" t="n">
         <v>44208</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.204460966542751</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="2" t="n">
         <v>0.204460966542751</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="2" t="n">
         <v>5.40905409054091</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="2" t="n">
         <v>5.66405917864127</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="2" t="n">
         <v>2.41957104557641</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="2" t="n">
         <v>0.451586136465182</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="2" t="n">
         <v>0.451586136465182</v>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="2" t="n">
         <v>2.58896338318721</v>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="2" t="n">
         <v>2.58896338318721</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="2" t="n">
         <v>3.10443218565722</v>
       </c>
-      <c r="Q16" s="4" t="n">
+      <c r="Q16" s="2" t="n">
         <v>3.10443218565722</v>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="2" t="n">
         <v>4.55696202531646</v>
       </c>
-      <c r="T16" s="4" t="n">
+      <c r="T16" s="2" t="n">
         <v>2.17545719586536</v>
       </c>
-      <c r="V16" s="4" t="n">
+      <c r="V16" s="2" t="n">
         <v>1.26284289276808</v>
       </c>
-      <c r="W16" s="4" t="n">
+      <c r="W16" s="2" t="n">
         <v>4.79103834554072</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="2" t="n">
         <v>1.90340358978178</v>
       </c>
-      <c r="AD16" s="4" t="n">
+      <c r="AD16" s="2" t="n">
         <v>4.9629217059198</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF16" s="4" t="n">
+      <c r="AF16" s="2" t="n">
         <v>21.5538628944505</v>
       </c>
-      <c r="AH16" s="4" t="n">
+      <c r="AH16" s="2" t="n">
         <v>22.3255352894528</v>
       </c>
-      <c r="AI16" s="4" t="n">
+      <c r="AI16" s="2" t="n">
         <v>2.68310265282584</v>
       </c>
-      <c r="AK16" s="4" t="n">
+      <c r="AK16" s="2" t="n">
         <v>71.3916191311979</v>
       </c>
-      <c r="AL16" s="4" t="n">
+      <c r="AL16" s="2" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AM16" s="4" t="n">
+      <c r="AM16" s="2" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AN16" s="4" t="n">
+      <c r="AN16" s="2" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AO16" s="4" t="n">
+      <c r="AO16" s="2" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AP16" s="4" t="n">
+      <c r="AP16" s="2" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AQ16" s="4" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AR16" s="4" t="n">
+      <c r="AR16" s="2" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AS16" s="4" t="n">
+      <c r="AS16" s="2" t="n">
         <v>1.61206896551724</v>
       </c>
       <c r="AT16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AZ16" s="4" t="n">
+      <c r="AZ16" s="2" t="n">
         <v>1.57286212914485</v>
       </c>
-      <c r="BA16" s="4" t="n">
+      <c r="BA16" s="2" t="n">
         <v>40.8438818565401</v>
       </c>
       <c r="BB16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG16" s="4" t="n">
+      <c r="BG16" s="2" t="n">
         <v>46.8894389438944</v>
       </c>
-      <c r="BH16" s="4" t="n">
+      <c r="BH16" s="2" t="n">
         <v>46.8894389438944</v>
       </c>
-      <c r="BK16" s="4" t="n">
+      <c r="BK16" s="2" t="n">
         <v>92.0143149284253</v>
       </c>
       <c r="BM16" s="0" t="n">
@@ -2457,115 +2457,115 @@
       <c r="A17" s="1" t="n">
         <v>44236</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="2" t="n">
         <v>1.72594142259414</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="2" t="n">
         <v>1.72594142259414</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="2" t="n">
         <v>7.01038794485412</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="2" t="n">
         <v>2.24369621017666</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="2" t="n">
         <v>9.39545676599902</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="2" t="n">
         <v>1.54096477794793</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="2" t="n">
         <v>1.54096477794793</v>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="2" t="n">
         <v>2.53907703758839</v>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="2" t="n">
         <v>2.53907703758839</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="P17" s="2" t="n">
         <v>6.31197859279081</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="Q17" s="2" t="n">
         <v>6.31197859279081</v>
       </c>
-      <c r="R17" s="4" t="n">
+      <c r="R17" s="2" t="n">
         <v>1.19209265175719</v>
       </c>
-      <c r="T17" s="4" t="n">
+      <c r="T17" s="2" t="n">
         <v>2.01022436807725</v>
       </c>
-      <c r="V17" s="4" t="n">
+      <c r="V17" s="2" t="n">
         <v>0.547958978483813</v>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="W17" s="2" t="n">
         <v>4.91837588949351</v>
       </c>
-      <c r="AB17" s="4" t="n">
+      <c r="AB17" s="2" t="n">
         <v>2.02833251790241</v>
       </c>
-      <c r="AD17" s="4" t="n">
+      <c r="AD17" s="2" t="n">
         <v>6.95749856897539</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF17" s="4" t="n">
+      <c r="AF17" s="2" t="n">
         <v>5.90909090909091</v>
       </c>
-      <c r="AH17" s="4" t="n">
+      <c r="AH17" s="2" t="n">
         <v>19.7287299630086</v>
       </c>
-      <c r="AI17" s="4" t="n">
+      <c r="AI17" s="2" t="n">
         <v>2.79183119447187</v>
       </c>
-      <c r="AK17" s="4" t="n">
+      <c r="AK17" s="2" t="n">
         <v>60.5058688806184</v>
       </c>
-      <c r="AL17" s="4" t="n">
+      <c r="AL17" s="2" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AM17" s="4" t="n">
+      <c r="AM17" s="2" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AN17" s="4" t="n">
+      <c r="AN17" s="2" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AO17" s="4" t="n">
+      <c r="AO17" s="2" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AP17" s="4" t="n">
+      <c r="AP17" s="2" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AQ17" s="4" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AR17" s="4" t="n">
+      <c r="AR17" s="2" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AS17" s="4" t="n">
+      <c r="AS17" s="2" t="n">
         <v>5.73991031390135</v>
       </c>
       <c r="AT17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ17" s="4" t="n">
+      <c r="AZ17" s="2" t="n">
         <v>2.16924910607866</v>
       </c>
-      <c r="BA17" s="4" t="n">
+      <c r="BA17" s="2" t="n">
         <v>70.2730109204368</v>
       </c>
       <c r="BB17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG17" s="4" t="n">
+      <c r="BG17" s="2" t="n">
         <v>56.4194139194139</v>
       </c>
-      <c r="BH17" s="4" t="n">
+      <c r="BH17" s="2" t="n">
         <v>56.4194139194139</v>
       </c>
-      <c r="BK17" s="4" t="n">
+      <c r="BK17" s="2" t="n">
         <v>89</v>
       </c>
       <c r="BM17" s="0" t="n">
@@ -2576,115 +2576,115 @@
       <c r="A18" s="1" t="n">
         <v>44271</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="2" t="n">
         <v>2.36486486486486</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="2" t="n">
         <v>2.36486486486486</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="2" t="n">
         <v>4.60835008222182</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="2" t="n">
         <v>3.15904139433551</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="2" t="n">
         <v>14.2099091175608</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="2" t="n">
         <v>0.872440273037543</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="2" t="n">
         <v>0.872440273037543</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="2" t="n">
         <v>2.47296322999279</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="2" t="n">
         <v>2.47296322999279</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="2" t="n">
         <v>3.31036168132942</v>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="Q18" s="2" t="n">
         <v>3.31036168132942</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="R18" s="2" t="n">
         <v>1.57685762904141</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="2" t="n">
         <v>1.74349872675361</v>
       </c>
-      <c r="V18" s="4" t="n">
+      <c r="V18" s="2" t="n">
         <v>2.72331154684096</v>
       </c>
-      <c r="W18" s="4" t="n">
+      <c r="W18" s="2" t="n">
         <v>6.94990488268865</v>
       </c>
-      <c r="AB18" s="4" t="n">
+      <c r="AB18" s="2" t="n">
         <v>1.22086118839015</v>
       </c>
-      <c r="AD18" s="4" t="n">
+      <c r="AD18" s="2" t="n">
         <v>5.91094295692666</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AF18" s="4" t="n">
+      <c r="AF18" s="2" t="n">
         <v>40.7352941176471</v>
       </c>
-      <c r="AH18" s="4" t="n">
+      <c r="AH18" s="2" t="n">
         <v>15.8610271903323</v>
       </c>
-      <c r="AI18" s="4" t="n">
+      <c r="AI18" s="2" t="n">
         <v>2.39155693261038</v>
       </c>
-      <c r="AK18" s="4" t="n">
+      <c r="AK18" s="2" t="n">
         <v>76.5192307692308</v>
       </c>
-      <c r="AL18" s="4" t="n">
+      <c r="AL18" s="2" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AM18" s="4" t="n">
+      <c r="AM18" s="2" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AN18" s="4" t="n">
+      <c r="AN18" s="2" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AO18" s="4" t="n">
+      <c r="AO18" s="2" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AP18" s="4" t="n">
+      <c r="AP18" s="2" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AQ18" s="4" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AR18" s="4" t="n">
+      <c r="AR18" s="2" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AS18" s="4" t="n">
+      <c r="AS18" s="2" t="n">
         <v>2.66924564796905</v>
       </c>
       <c r="AT18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ18" s="4" t="n">
+      <c r="AZ18" s="2" t="n">
         <v>1.09357881923311</v>
       </c>
-      <c r="BA18" s="4" t="n">
+      <c r="BA18" s="2" t="n">
         <v>64.6098829648895</v>
       </c>
       <c r="BB18" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="BG18" s="4" t="n">
+      <c r="BG18" s="2" t="n">
         <v>46.7102552619794</v>
       </c>
-      <c r="BH18" s="4" t="n">
+      <c r="BH18" s="2" t="n">
         <v>46.7102552619794</v>
       </c>
-      <c r="BK18" s="4" t="n">
+      <c r="BK18" s="2" t="n">
         <v>11.304347826087</v>
       </c>
       <c r="BM18" s="0" t="n">
@@ -2695,115 +2695,115 @@
       <c r="A19" s="1" t="n">
         <v>44306</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="2" t="n">
         <v>4.77356181150551</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="2" t="n">
         <v>4.77356181150551</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="2" t="n">
         <v>7.06175680859225</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="2" t="n">
         <v>4.25785032507954</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="2" t="n">
         <v>10.4211733857752</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="2" t="n">
         <v>1.47115482104836</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="2" t="n">
         <v>1.47115482104836</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="2" t="n">
         <v>0.408041401273885</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="2" t="n">
         <v>0.408041401273885</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="2" t="n">
         <v>3.82786214422115</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="Q19" s="2" t="n">
         <v>3.82786214422115</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="2" t="n">
         <v>1.77496038034865</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="2" t="n">
         <v>3.13403684161807</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="V19" s="2" t="n">
         <v>4.52104499274311</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="2" t="n">
         <v>6.20337109698812</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="2" t="n">
         <v>0.929512122119126</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="2" t="n">
         <v>4.46484549932826</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF19" s="4" t="n">
+      <c r="AF19" s="2" t="n">
         <v>11.5492957746479</v>
       </c>
-      <c r="AH19" s="4" t="n">
+      <c r="AH19" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AI19" s="4" t="n">
+      <c r="AI19" s="2" t="n">
         <v>1.03503696560591</v>
       </c>
-      <c r="AK19" s="4" t="n">
+      <c r="AK19" s="2" t="n">
         <v>58.8388558482016</v>
       </c>
-      <c r="AL19" s="4" t="n">
+      <c r="AL19" s="2" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AM19" s="4" t="n">
+      <c r="AM19" s="2" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AN19" s="4" t="n">
+      <c r="AN19" s="2" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AO19" s="4" t="n">
+      <c r="AO19" s="2" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AP19" s="4" t="n">
+      <c r="AP19" s="2" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AQ19" s="4" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AR19" s="4" t="n">
+      <c r="AR19" s="2" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AS19" s="4" t="n">
+      <c r="AS19" s="2" t="n">
         <v>1.23022847100176</v>
       </c>
       <c r="AT19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ19" s="4" t="n">
+      <c r="AZ19" s="2" t="n">
         <v>1.46890061969245</v>
       </c>
-      <c r="BA19" s="4" t="n">
+      <c r="BA19" s="2" t="n">
         <v>57.8392007611798</v>
       </c>
       <c r="BB19" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="BG19" s="4" t="n">
+      <c r="BG19" s="2" t="n">
         <v>47.0383928571429</v>
       </c>
-      <c r="BH19" s="4" t="n">
+      <c r="BH19" s="2" t="n">
         <v>47.0383928571429</v>
       </c>
-      <c r="BK19" s="4" t="n">
+      <c r="BK19" s="2" t="n">
         <v>72.1212121212121</v>
       </c>
       <c r="BM19" s="0" t="n">
@@ -2814,115 +2814,115 @@
       <c r="A20" s="1" t="n">
         <v>44341</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="2" t="n">
         <v>4.52883263009845</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="2" t="n">
         <v>4.52883263009845</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="2" t="n">
         <v>3.44662155337845</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="2" t="n">
         <v>2.27621483375959</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="2" t="n">
         <v>8.65934449093445</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="2" t="n">
         <v>0.411349027287046</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="2" t="n">
         <v>0.411349027287046</v>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="N20" s="2" t="n">
         <v>0.0841143955779861</v>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="O20" s="2" t="n">
         <v>0.0841143955779861</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="2" t="n">
         <v>1.97914225451137</v>
       </c>
-      <c r="Q20" s="4" t="n">
+      <c r="Q20" s="2" t="n">
         <v>1.97914225451137</v>
       </c>
-      <c r="R20" s="4" t="n">
+      <c r="R20" s="2" t="n">
         <v>0.887480190174327</v>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="T20" s="2" t="n">
         <v>3.98175031107424</v>
       </c>
-      <c r="V20" s="4" t="n">
+      <c r="V20" s="2" t="n">
         <v>0.0642523364485981</v>
       </c>
-      <c r="W20" s="4" t="n">
+      <c r="W20" s="2" t="n">
         <v>5.98925092374874</v>
       </c>
-      <c r="AB20" s="4" t="n">
+      <c r="AB20" s="2" t="n">
         <v>0.536582379232229</v>
       </c>
-      <c r="AD20" s="4" t="n">
+      <c r="AD20" s="2" t="n">
         <v>2.57165149544863</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF20" s="4" t="n">
+      <c r="AF20" s="2" t="n">
         <v>59.0601503759399</v>
       </c>
-      <c r="AH20" s="4" t="n">
+      <c r="AH20" s="2" t="n">
         <v>19.6540880503145</v>
       </c>
-      <c r="AI20" s="4" t="n">
+      <c r="AI20" s="2" t="n">
         <v>4.02805611222445</v>
       </c>
-      <c r="AK20" s="4" t="n">
+      <c r="AK20" s="2" t="n">
         <v>42.9572719802794</v>
       </c>
-      <c r="AL20" s="4" t="n">
+      <c r="AL20" s="2" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AM20" s="4" t="n">
+      <c r="AM20" s="2" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AN20" s="4" t="n">
+      <c r="AN20" s="2" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AO20" s="4" t="n">
+      <c r="AO20" s="2" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AP20" s="4" t="n">
+      <c r="AP20" s="2" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AQ20" s="4" t="n">
+      <c r="AQ20" s="2" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AR20" s="4" t="n">
+      <c r="AR20" s="2" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AS20" s="4" t="n">
+      <c r="AS20" s="2" t="n">
         <v>0.294117647058824</v>
       </c>
       <c r="AT20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AZ20" s="4" t="n">
+      <c r="AZ20" s="2" t="n">
         <v>0.25899764547595</v>
       </c>
-      <c r="BA20" s="4" t="n">
+      <c r="BA20" s="2" t="n">
         <v>51.958174904943</v>
       </c>
       <c r="BB20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BG20" s="4" t="n">
+      <c r="BG20" s="2" t="n">
         <v>20.3025682182986</v>
       </c>
-      <c r="BH20" s="4" t="n">
+      <c r="BH20" s="2" t="n">
         <v>20.3025682182986</v>
       </c>
-      <c r="BK20" s="4" t="n">
+      <c r="BK20" s="2" t="n">
         <v>3.84615384615385</v>
       </c>
       <c r="BM20" s="0" t="n">
@@ -2933,115 +2933,115 @@
       <c r="A21" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="2" t="n">
         <v>1.46478873239437</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="2" t="n">
         <v>1.46478873239437</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="2" t="n">
         <v>1.18225831641418</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="2" t="n">
         <v>3.4156378600823</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="2" t="n">
         <v>10.4122396940077</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="2" t="n">
         <v>0.812386307259798</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="M21" s="2" t="n">
         <v>0.812386307259798</v>
       </c>
-      <c r="N21" s="4" t="n">
+      <c r="N21" s="2" t="n">
         <v>0.37397157816006</v>
       </c>
-      <c r="O21" s="4" t="n">
+      <c r="O21" s="2" t="n">
         <v>0.37397157816006</v>
       </c>
-      <c r="P21" s="4" t="n">
+      <c r="P21" s="2" t="n">
         <v>3.32439678284182</v>
       </c>
-      <c r="Q21" s="4" t="n">
+      <c r="Q21" s="2" t="n">
         <v>3.32439678284182</v>
       </c>
-      <c r="R21" s="4" t="n">
+      <c r="R21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T21" s="4" t="n">
+      <c r="T21" s="2" t="n">
         <v>0.881666985280061</v>
       </c>
-      <c r="V21" s="4" t="n">
+      <c r="V21" s="2" t="n">
         <v>0.0471380471380471</v>
       </c>
-      <c r="W21" s="4" t="n">
+      <c r="W21" s="2" t="n">
         <v>9.9349593495935</v>
       </c>
-      <c r="AB21" s="4" t="n">
+      <c r="AB21" s="2" t="n">
         <v>0.590070757452732</v>
       </c>
-      <c r="AD21" s="4" t="n">
+      <c r="AD21" s="2" t="n">
         <v>1.47817119284978</v>
       </c>
       <c r="AE21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AF21" s="4" t="n">
+      <c r="AF21" s="2" t="n">
         <v>1.93470374848851</v>
       </c>
-      <c r="AH21" s="4" t="n">
+      <c r="AH21" s="2" t="n">
         <v>9.97715156130998</v>
       </c>
-      <c r="AI21" s="4" t="n">
+      <c r="AI21" s="2" t="n">
         <v>0.330013200528021</v>
       </c>
-      <c r="AK21" s="4" t="n">
+      <c r="AK21" s="2" t="n">
         <v>14.3075453677173</v>
       </c>
-      <c r="AL21" s="4" t="n">
+      <c r="AL21" s="2" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AM21" s="4" t="n">
+      <c r="AM21" s="2" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AN21" s="4" t="n">
+      <c r="AN21" s="2" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AO21" s="4" t="n">
+      <c r="AO21" s="2" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AP21" s="4" t="n">
+      <c r="AP21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" s="4" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AR21" s="4" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="4" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AT21" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="AZ21" s="4" t="n">
+      <c r="AZ21" s="2" t="n">
         <v>0.629072118625028</v>
       </c>
-      <c r="BA21" s="4" t="n">
+      <c r="BA21" s="2" t="n">
         <v>46.2397540983607</v>
       </c>
       <c r="BB21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="BG21" s="4" t="n">
+      <c r="BG21" s="2" t="n">
         <v>18.8385598141696</v>
       </c>
-      <c r="BH21" s="4" t="n">
+      <c r="BH21" s="2" t="n">
         <v>18.8385598141696</v>
       </c>
-      <c r="BK21" s="4" t="n">
+      <c r="BK21" s="2" t="n">
         <v>12</v>
       </c>
       <c r="BM21" s="0" t="n">
@@ -3052,115 +3052,115 @@
       <c r="A22" s="1" t="n">
         <v>44495</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="2" t="n">
         <v>0.760462465396515</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="2" t="n">
         <v>3.4273344254622</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="2" t="n">
         <v>1.59584513692162</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="2" t="n">
         <v>0.127424250218633</v>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="2" t="n">
         <v>0.127424250218633</v>
       </c>
-      <c r="N22" s="4" t="n">
+      <c r="N22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O22" s="4" t="n">
+      <c r="O22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P22" s="4" t="n">
+      <c r="P22" s="2" t="n">
         <v>0.433487012256831</v>
       </c>
-      <c r="Q22" s="4" t="n">
+      <c r="Q22" s="2" t="n">
         <v>0.433487012256831</v>
       </c>
-      <c r="R22" s="4" t="n">
+      <c r="R22" s="2" t="n">
         <v>2.98013245033113</v>
       </c>
-      <c r="T22" s="4" t="n">
+      <c r="T22" s="2" t="n">
         <v>0.933576452201094</v>
       </c>
-      <c r="V22" s="4" t="n">
+      <c r="V22" s="2" t="n">
         <v>8.89436313577742</v>
       </c>
-      <c r="W22" s="4" t="n">
+      <c r="W22" s="2" t="n">
         <v>3.37358784573432</v>
       </c>
-      <c r="AB22" s="4" t="n">
+      <c r="AB22" s="2" t="n">
         <v>0.511047788106694</v>
       </c>
-      <c r="AD22" s="4" t="n">
+      <c r="AD22" s="2" t="n">
         <v>0.30644593166608</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AF22" s="4" t="n">
+      <c r="AF22" s="2" t="n">
         <v>24.2835595776772</v>
       </c>
-      <c r="AH22" s="4" t="n">
+      <c r="AH22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AI22" s="4" t="n">
+      <c r="AI22" s="2" t="n">
         <v>0.428724544480172</v>
       </c>
-      <c r="AK22" s="4" t="n">
+      <c r="AK22" s="2" t="n">
         <v>3.54077253218884</v>
       </c>
-      <c r="AL22" s="4" t="n">
+      <c r="AL22" s="2" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AM22" s="4" t="n">
+      <c r="AM22" s="2" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AN22" s="4" t="n">
+      <c r="AN22" s="2" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AO22" s="4" t="n">
+      <c r="AO22" s="2" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AP22" s="4" t="n">
+      <c r="AP22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ22" s="4" t="n">
+      <c r="AQ22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AR22" s="4" t="n">
+      <c r="AR22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS22" s="4" t="n">
+      <c r="AS22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AT22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ22" s="4" t="n">
+      <c r="AZ22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BA22" s="4" t="n">
+      <c r="BA22" s="2" t="n">
         <v>8.56756756756757</v>
       </c>
       <c r="BB22" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="BG22" s="4" t="n">
+      <c r="BG22" s="2" t="n">
         <v>2.65946502057613</v>
       </c>
-      <c r="BH22" s="4" t="n">
+      <c r="BH22" s="2" t="n">
         <v>2.65946502057613</v>
       </c>
-      <c r="BK22" s="4" t="n">
+      <c r="BK22" s="2" t="n">
         <v>2.64705882352941</v>
       </c>
       <c r="BM22" s="0" t="n">
@@ -3171,127 +3171,127 @@
       <c r="A23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="5"/>
     </row>
   </sheetData>

--- a/data/EPNM/interim/calibration_data/ERMG_temporary_unemployment.xlsx
+++ b/data/EPNM/interim/calibration_data/ERMG_temporary_unemployment.xlsx
@@ -22,193 +22,193 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74-75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87-88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97-98</t>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E37-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F41-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I55-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J59-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J62-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M69-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N80-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q87-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R90-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T97-98</t>
   </si>
   <si>
     <t xml:space="preserve">BE</t>
@@ -224,7 +224,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -249,6 +249,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -317,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,19 +333,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -347,6 +354,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -430,12 +441,12 @@
   <dimension ref="A1:BM54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="BM1" activeCellId="0" sqref="B1:BM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.53"/>
@@ -462,96 +473,96 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="28.48"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="0" t="s">
@@ -661,115 +672,115 @@
       <c r="A2" s="1" t="n">
         <v>43927</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>3.9080982711556</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>3.9080982711556</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>7.34638666418327</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>68.0466011683484</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>26.289260861388</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>13.5589730660952</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>13.5589730660952</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>15.4948653073374</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>15.4948653073374</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>11.6091182913472</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>11.6091182913472</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>12.6826771653543</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>26.3025585972446</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>57.9941577409932</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>64.017094017094</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>46.3874060841696</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>49.2062337195724</v>
       </c>
       <c r="AE2" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>39.3278325618837</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" s="3" t="n">
         <v>55.2958756724447</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>12.7213660702625</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
         <v>90.5950123660346</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>18.6363390197671</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>18.6363390197671</v>
       </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AN2" s="3" t="n">
         <v>18.6363390197671</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AO2" s="3" t="n">
         <v>18.6363390197671</v>
       </c>
-      <c r="AP2" s="2" t="n">
+      <c r="AP2" s="3" t="n">
         <v>2.18269653052262</v>
       </c>
-      <c r="AQ2" s="2" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>2.18269653052262</v>
       </c>
-      <c r="AR2" s="2" t="n">
+      <c r="AR2" s="3" t="n">
         <v>2.18269653052262</v>
       </c>
-      <c r="AS2" s="2" t="n">
+      <c r="AS2" s="3" t="n">
         <v>38.2369534555712</v>
       </c>
       <c r="AT2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="AZ2" s="2" t="n">
+      <c r="AZ2" s="3" t="n">
         <v>15.2279847586791</v>
       </c>
-      <c r="BA2" s="2" t="n">
+      <c r="BA2" s="3" t="n">
         <v>69.3836126629423</v>
       </c>
-      <c r="BB2" s="2" t="n">
+      <c r="BB2" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="BG2" s="2" t="n">
+      <c r="BG2" s="3" t="n">
         <v>75.9781073446328</v>
       </c>
-      <c r="BH2" s="2" t="n">
+      <c r="BH2" s="3" t="n">
         <v>75.9781073446328</v>
       </c>
-      <c r="BK2" s="2" t="n">
+      <c r="BK2" s="3" t="n">
         <v>93.75</v>
       </c>
       <c r="BM2" s="0" t="n">
@@ -780,116 +791,116 @@
       <c r="A3" s="1" t="n">
         <v>43934</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>9.31558935361217</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>9.31558935361217</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>10.4848255219187</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>53.6026917605865</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>33.6032166843408</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="3" t="n">
         <v>14.3074315234354</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="3" t="n">
         <v>14.3074315234354</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="3" t="n">
         <v>22.6552419354839</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>22.6552419354839</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>18.216676201373</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>18.216676201373</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="3" t="n">
         <v>13.556517311609</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>25.2934851936219</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>55.8377135348226</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>71.1128630705394</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AB3" s="3" t="n">
         <v>40.9707593062606</v>
       </c>
-      <c r="AD3" s="2" t="n">
+      <c r="AD3" s="3" t="n">
         <v>36.2801991262826</v>
       </c>
       <c r="AE3" s="0" t="n">
         <v>40.5</v>
       </c>
-      <c r="AF3" s="2" t="n">
+      <c r="AF3" s="3" t="n">
         <v>83.8322147651007</v>
       </c>
-      <c r="AH3" s="2" t="n">
+      <c r="AH3" s="3" t="n">
         <v>35.1291291291291</v>
       </c>
-      <c r="AI3" s="2" t="n">
+      <c r="AI3" s="3" t="n">
         <v>15.399969813599</v>
       </c>
-      <c r="AK3" s="2" t="n">
+      <c r="AK3" s="3" t="n">
         <v>93.9522858854063</v>
       </c>
-      <c r="AL3" s="2" t="n">
+      <c r="AL3" s="3" t="n">
         <v>13.368566094764</v>
       </c>
-      <c r="AM3" s="2" t="n">
+      <c r="AM3" s="3" t="n">
         <v>13.368566094764</v>
       </c>
-      <c r="AN3" s="2" t="n">
+      <c r="AN3" s="3" t="n">
         <v>13.368566094764</v>
       </c>
-      <c r="AO3" s="2" t="n">
+      <c r="AO3" s="3" t="n">
         <v>13.368566094764</v>
       </c>
-      <c r="AP3" s="2" t="n">
+      <c r="AP3" s="3" t="n">
         <v>3.05974477958237</v>
       </c>
-      <c r="AQ3" s="2" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>3.05974477958237</v>
       </c>
-      <c r="AR3" s="2" t="n">
+      <c r="AR3" s="3" t="n">
         <v>3.05974477958237</v>
       </c>
-      <c r="AS3" s="2" t="n">
+      <c r="AS3" s="3" t="n">
         <v>40.8210784313726</v>
       </c>
       <c r="AT3" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AZ3" s="2" t="n">
+      <c r="AZ3" s="3" t="n">
         <v>16.3126463700234</v>
       </c>
-      <c r="BA3" s="2" t="n">
+      <c r="BA3" s="3" t="n">
         <v>68.4062038404727</v>
       </c>
-      <c r="BB3" s="2" t="n">
+      <c r="BB3" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="BG3" s="2" t="n">
+      <c r="BG3" s="3" t="n">
         <v>72.0974450386215</v>
       </c>
-      <c r="BH3" s="2" t="n">
+      <c r="BH3" s="3" t="n">
         <v>72.0974450386215</v>
       </c>
-      <c r="BK3" s="2" t="n">
-        <v>99.84375</v>
+      <c r="BK3" s="4" t="n">
+        <v>99</v>
       </c>
       <c r="BM3" s="0" t="n">
         <v>31</v>
@@ -899,115 +910,115 @@
       <c r="A4" s="1" t="n">
         <v>43941</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>10.2578881787853</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>56.610551558753</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>29.3082593082593</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <v>7.54003768252473</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="3" t="n">
         <v>7.54003768252473</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="3" t="n">
         <v>10.9098712446352</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>10.9098712446352</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>17.522175058548</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>17.522175058548</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="3" t="n">
         <v>31.7219313554392</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>24.8058303576655</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>60.5152671755725</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>63.489898989899</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="3" t="n">
         <v>32.7475278542047</v>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AD4" s="3" t="n">
         <v>39.7187289845326</v>
       </c>
       <c r="AE4" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="AF4" s="2" t="n">
+      <c r="AF4" s="3" t="n">
         <v>73.9169675090253</v>
       </c>
-      <c r="AH4" s="2" t="n">
+      <c r="AH4" s="3" t="n">
         <v>73.8792045175546</v>
       </c>
-      <c r="AI4" s="2" t="n">
+      <c r="AI4" s="3" t="n">
         <v>10.6421461519786</v>
       </c>
-      <c r="AK4" s="2" t="n">
+      <c r="AK4" s="3" t="n">
         <v>89.7854880506766</v>
       </c>
-      <c r="AL4" s="2" t="n">
+      <c r="AL4" s="3" t="n">
         <v>12.0255977130977</v>
       </c>
-      <c r="AM4" s="2" t="n">
+      <c r="AM4" s="3" t="n">
         <v>12.0255977130977</v>
       </c>
-      <c r="AN4" s="2" t="n">
+      <c r="AN4" s="3" t="n">
         <v>12.0255977130977</v>
       </c>
-      <c r="AO4" s="2" t="n">
+      <c r="AO4" s="3" t="n">
         <v>12.0255977130977</v>
       </c>
-      <c r="AP4" s="2" t="n">
+      <c r="AP4" s="3" t="n">
         <v>2.99081885856079</v>
       </c>
-      <c r="AQ4" s="2" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>2.99081885856079</v>
       </c>
-      <c r="AR4" s="2" t="n">
+      <c r="AR4" s="3" t="n">
         <v>2.99081885856079</v>
       </c>
-      <c r="AS4" s="2" t="n">
+      <c r="AS4" s="3" t="n">
         <v>25.5776587605203</v>
       </c>
       <c r="AT4" s="0" t="n">
         <v>22.5</v>
       </c>
-      <c r="AZ4" s="2" t="n">
+      <c r="AZ4" s="3" t="n">
         <v>25.7773885970033</v>
       </c>
-      <c r="BA4" s="2" t="n">
+      <c r="BA4" s="3" t="n">
         <v>67.0443548387097</v>
       </c>
       <c r="BB4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="BG4" s="2" t="n">
+      <c r="BG4" s="3" t="n">
         <v>75.5551839464883</v>
       </c>
-      <c r="BH4" s="2" t="n">
+      <c r="BH4" s="3" t="n">
         <v>75.5551839464883</v>
       </c>
-      <c r="BK4" s="2" t="n">
+      <c r="BK4" s="3" t="n">
         <v>96.6473988439306</v>
       </c>
       <c r="BM4" s="0" t="n">
@@ -1018,116 +1029,116 @@
       <c r="A5" s="1" t="n">
         <v>43948</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>2.40174672489083</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>2.40174672489083</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>7.60933228302674</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>35.6423854312587</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>27.5477565526433</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="3" t="n">
         <v>7.5998538088028</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="3" t="n">
         <v>7.5998538088028</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="3" t="n">
         <v>14.098730606488</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>14.098730606488</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>26.0739764540503</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>26.0739764540503</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="3" t="n">
         <v>20.9055374592834</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>17.7073473367012</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>39.0384615384615</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>48.088565763384</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="3" t="n">
         <v>27.786044941653</v>
       </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AD5" s="3" t="n">
         <v>33.9697585195215</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="AF5" s="2" t="n">
+      <c r="AF5" s="3" t="n">
         <v>47.7285129604366</v>
       </c>
-      <c r="AH5" s="2" t="n">
+      <c r="AH5" s="3" t="n">
         <v>53.5261707988981</v>
       </c>
-      <c r="AI5" s="2" t="n">
+      <c r="AI5" s="3" t="n">
         <v>9.6317042431032</v>
       </c>
-      <c r="AK5" s="2" t="n">
+      <c r="AK5" s="3" t="n">
         <v>79.9562965360958</v>
       </c>
-      <c r="AL5" s="2" t="n">
+      <c r="AL5" s="3" t="n">
         <v>9.25930695387497</v>
       </c>
-      <c r="AM5" s="2" t="n">
+      <c r="AM5" s="3" t="n">
         <v>9.25930695387497</v>
       </c>
-      <c r="AN5" s="2" t="n">
+      <c r="AN5" s="3" t="n">
         <v>9.25930695387497</v>
       </c>
-      <c r="AO5" s="2" t="n">
+      <c r="AO5" s="3" t="n">
         <v>9.25930695387497</v>
       </c>
-      <c r="AP5" s="2" t="n">
+      <c r="AP5" s="3" t="n">
         <v>3.10234305923961</v>
       </c>
-      <c r="AQ5" s="2" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>3.10234305923961</v>
       </c>
-      <c r="AR5" s="2" t="n">
+      <c r="AR5" s="3" t="n">
         <v>3.10234305923961</v>
       </c>
-      <c r="AS5" s="2" t="n">
+      <c r="AS5" s="3" t="n">
         <v>20.3400503778338</v>
       </c>
       <c r="AT5" s="0" t="n">
         <v>21.5</v>
       </c>
-      <c r="AZ5" s="2" t="n">
+      <c r="AZ5" s="3" t="n">
         <v>40.8625218914186</v>
       </c>
-      <c r="BA5" s="2" t="n">
+      <c r="BA5" s="3" t="n">
         <v>72.2727272727273</v>
       </c>
       <c r="BB5" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="BG5" s="2" t="n">
+      <c r="BG5" s="3" t="n">
         <v>86.094867807154</v>
       </c>
-      <c r="BH5" s="2" t="n">
+      <c r="BH5" s="3" t="n">
         <v>86.094867807154</v>
       </c>
-      <c r="BK5" s="2" t="n">
-        <v>100</v>
+      <c r="BK5" s="4" t="n">
+        <v>99</v>
       </c>
       <c r="BM5" s="0" t="n">
         <v>29</v>
@@ -1137,116 +1148,116 @@
       <c r="A6" s="1" t="n">
         <v>43956</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.948012232415902</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.948012232415902</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>12.8854460634683</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>58.2811101163832</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>22.4378304288232</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="3" t="n">
         <v>6.35616819827346</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="3" t="n">
         <v>6.35616819827346</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="3" t="n">
         <v>10.2565982404692</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>10.2565982404692</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>27.2483243419977</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="3" t="n">
         <v>27.2483243419977</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="3" t="n">
         <v>9.28507194244604</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>12.564135734899</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>26.9298245614035</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>27.0642933049947</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="3" t="n">
         <v>19.4637941352484</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AD6" s="3" t="n">
         <v>28.2089723048753</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AF6" s="3" t="n">
         <v>85.2683896620278</v>
       </c>
-      <c r="AH6" s="2" t="n">
+      <c r="AH6" s="3" t="n">
         <v>3.41614906832298</v>
       </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AI6" s="3" t="n">
         <v>23.2254454293133</v>
       </c>
-      <c r="AK6" s="2" t="n">
+      <c r="AK6" s="3" t="n">
         <v>67.2990835878923</v>
       </c>
-      <c r="AL6" s="2" t="n">
+      <c r="AL6" s="3" t="n">
         <v>12.7626836706404</v>
       </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AM6" s="3" t="n">
         <v>12.7626836706404</v>
       </c>
-      <c r="AN6" s="2" t="n">
+      <c r="AN6" s="3" t="n">
         <v>12.7626836706404</v>
       </c>
-      <c r="AO6" s="2" t="n">
+      <c r="AO6" s="3" t="n">
         <v>12.7626836706404</v>
       </c>
-      <c r="AP6" s="2" t="n">
+      <c r="AP6" s="3" t="n">
         <v>0.86105675146771</v>
       </c>
-      <c r="AQ6" s="2" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>0.86105675146771</v>
       </c>
-      <c r="AR6" s="2" t="n">
+      <c r="AR6" s="3" t="n">
         <v>0.86105675146771</v>
       </c>
-      <c r="AS6" s="2" t="n">
+      <c r="AS6" s="3" t="n">
         <v>20.8742004264392</v>
       </c>
       <c r="AT6" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AZ6" s="2" t="n">
+      <c r="AZ6" s="3" t="n">
         <v>31.7787456445993</v>
       </c>
-      <c r="BA6" s="2" t="n">
+      <c r="BA6" s="3" t="n">
         <v>80.3618113912232</v>
       </c>
       <c r="BB6" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="BG6" s="2" t="n">
+      <c r="BG6" s="3" t="n">
         <v>85.1504787961696</v>
       </c>
-      <c r="BH6" s="2" t="n">
+      <c r="BH6" s="3" t="n">
         <v>85.1504787961696</v>
       </c>
-      <c r="BK6" s="2" t="n">
-        <v>100</v>
+      <c r="BK6" s="4" t="n">
+        <v>99</v>
       </c>
       <c r="BM6" s="0" t="n">
         <v>24</v>
@@ -1256,116 +1267,116 @@
       <c r="A7" s="1" t="n">
         <v>43963</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>8.58895705521472</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>8.58895705521472</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>8.20879826603516</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>47.9397221568166</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>16.7703670546106</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="3" t="n">
         <v>2.70308665891773</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="3" t="n">
         <v>2.70308665891773</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="3" t="n">
         <v>10.7088082901554</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="3" t="n">
         <v>10.7088082901554</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>15.0924427376217</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>15.0924427376217</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="3" t="n">
         <v>22.9069103369503</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>19.7286733238231</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>35.2858837485172</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>23.6488970588235</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AB7" s="3" t="n">
         <v>16.6987968662563</v>
       </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AD7" s="3" t="n">
         <v>28.9406925578726</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>22.5</v>
       </c>
-      <c r="AF7" s="2" t="n">
+      <c r="AF7" s="3" t="n">
         <v>51.830229226361</v>
       </c>
-      <c r="AH7" s="2" t="n">
+      <c r="AH7" s="3" t="n">
         <v>77.2869565217391</v>
       </c>
-      <c r="AI7" s="2" t="n">
+      <c r="AI7" s="3" t="n">
         <v>5.42888272583201</v>
       </c>
-      <c r="AK7" s="2" t="n">
+      <c r="AK7" s="3" t="n">
         <v>91.4347826086957</v>
       </c>
-      <c r="AL7" s="2" t="n">
+      <c r="AL7" s="3" t="n">
         <v>14.3747013142174</v>
       </c>
-      <c r="AM7" s="2" t="n">
+      <c r="AM7" s="3" t="n">
         <v>14.3747013142174</v>
       </c>
-      <c r="AN7" s="2" t="n">
+      <c r="AN7" s="3" t="n">
         <v>14.3747013142174</v>
       </c>
-      <c r="AO7" s="2" t="n">
+      <c r="AO7" s="3" t="n">
         <v>14.3747013142174</v>
       </c>
-      <c r="AP7" s="2" t="n">
+      <c r="AP7" s="3" t="n">
         <v>0.325188961153103</v>
       </c>
-      <c r="AQ7" s="2" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>0.325188961153103</v>
       </c>
-      <c r="AR7" s="2" t="n">
+      <c r="AR7" s="3" t="n">
         <v>0.325188961153103</v>
       </c>
-      <c r="AS7" s="2" t="n">
+      <c r="AS7" s="3" t="n">
         <v>0.582554517133956</v>
       </c>
       <c r="AT7" s="0" t="n">
         <v>17.5</v>
       </c>
-      <c r="AZ7" s="2" t="n">
+      <c r="AZ7" s="3" t="n">
         <v>27.3467289719626</v>
       </c>
-      <c r="BA7" s="2" t="n">
+      <c r="BA7" s="3" t="n">
         <v>79.7322580645161</v>
       </c>
       <c r="BB7" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="BG7" s="2" t="n">
+      <c r="BG7" s="3" t="n">
         <v>84.0239520958084</v>
       </c>
-      <c r="BH7" s="2" t="n">
+      <c r="BH7" s="3" t="n">
         <v>84.0239520958084</v>
       </c>
-      <c r="BK7" s="2" t="n">
-        <v>100</v>
+      <c r="BK7" s="4" t="n">
+        <v>99</v>
       </c>
       <c r="BM7" s="0" t="n">
         <v>22</v>
@@ -1375,115 +1386,115 @@
       <c r="A8" s="1" t="n">
         <v>43977</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>7.67684887459807</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>7.67684887459807</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>8.74894555214724</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>51.2576478585996</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>16.5969084423306</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="3" t="n">
         <v>6.17771317829457</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="3" t="n">
         <v>6.17771317829457</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="3" t="n">
         <v>7.8881469115192</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="3" t="n">
         <v>7.8881469115192</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>22.9607072691552</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>22.9607072691552</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="3" t="n">
         <v>13.0522088353414</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>15.5289115646259</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>4.08917197452229</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>30.9233321046812</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="3" t="n">
         <v>11.1446520910823</v>
       </c>
-      <c r="AD8" s="2" t="n">
+      <c r="AD8" s="3" t="n">
         <v>18.5118959107807</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF8" s="2" t="n">
+      <c r="AF8" s="3" t="n">
         <v>20.9970530451866</v>
       </c>
-      <c r="AH8" s="2" t="n">
+      <c r="AH8" s="3" t="n">
         <v>78.0828114126653</v>
       </c>
-      <c r="AI8" s="2" t="n">
+      <c r="AI8" s="3" t="n">
         <v>7.89551391254969</v>
       </c>
-      <c r="AK8" s="2" t="n">
+      <c r="AK8" s="3" t="n">
         <v>88.9232649071359</v>
       </c>
-      <c r="AL8" s="2" t="n">
+      <c r="AL8" s="3" t="n">
         <v>12.0110914454277</v>
       </c>
-      <c r="AM8" s="2" t="n">
+      <c r="AM8" s="3" t="n">
         <v>12.0110914454277</v>
       </c>
-      <c r="AN8" s="2" t="n">
+      <c r="AN8" s="3" t="n">
         <v>12.0110914454277</v>
       </c>
-      <c r="AO8" s="2" t="n">
+      <c r="AO8" s="3" t="n">
         <v>12.0110914454277</v>
       </c>
-      <c r="AP8" s="2" t="n">
+      <c r="AP8" s="3" t="n">
         <v>4.56997084548105</v>
       </c>
-      <c r="AQ8" s="2" t="n">
+      <c r="AQ8" s="3" t="n">
         <v>4.56997084548105</v>
       </c>
-      <c r="AR8" s="2" t="n">
+      <c r="AR8" s="3" t="n">
         <v>4.56997084548105</v>
       </c>
-      <c r="AS8" s="2" t="n">
+      <c r="AS8" s="3" t="n">
         <v>16.6420454545455</v>
       </c>
       <c r="AT8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="AZ8" s="2" t="n">
+      <c r="AZ8" s="3" t="n">
         <v>10.7391056679009</v>
       </c>
-      <c r="BA8" s="2" t="n">
+      <c r="BA8" s="3" t="n">
         <v>79.131090487239</v>
       </c>
       <c r="BB8" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="BG8" s="2" t="n">
+      <c r="BG8" s="3" t="n">
         <v>78.0828114126653</v>
       </c>
-      <c r="BH8" s="2" t="n">
+      <c r="BH8" s="3" t="n">
         <v>78.0828114126653</v>
       </c>
-      <c r="BK8" s="2" t="n">
+      <c r="BK8" s="3" t="n">
         <v>5.41871921182266</v>
       </c>
       <c r="BM8" s="0" t="n">
@@ -1494,115 +1505,115 @@
       <c r="A9" s="1" t="n">
         <v>43991</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>8.42859280317199</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>34.3144815766924</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>18.0283400809717</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="3" t="n">
         <v>3.38678606757953</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="3" t="n">
         <v>3.38678606757953</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="N9" s="3" t="n">
         <v>7.23997217713888</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="3" t="n">
         <v>7.23997217713888</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>14.0607670380928</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="3" t="n">
         <v>14.0607670380928</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" s="3" t="n">
         <v>2.8516057585825</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>7.25635174197475</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>2.83656672545561</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>7.94493608652901</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AB9" s="3" t="n">
         <v>4.03172687912556</v>
       </c>
-      <c r="AD9" s="2" t="n">
+      <c r="AD9" s="3" t="n">
         <v>23.8415525970373</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="AF9" s="2" t="n">
+      <c r="AF9" s="3" t="n">
         <v>11.3009708737864</v>
       </c>
-      <c r="AH9" s="2" t="n">
+      <c r="AH9" s="3" t="n">
         <v>43.7956204379562</v>
       </c>
-      <c r="AI9" s="2" t="n">
+      <c r="AI9" s="3" t="n">
         <v>17.3990729034977</v>
       </c>
-      <c r="AK9" s="2" t="n">
+      <c r="AK9" s="3" t="n">
         <v>47.615</v>
       </c>
-      <c r="AL9" s="2" t="n">
+      <c r="AL9" s="3" t="n">
         <v>9.15360501567398</v>
       </c>
-      <c r="AM9" s="2" t="n">
+      <c r="AM9" s="3" t="n">
         <v>9.15360501567398</v>
       </c>
-      <c r="AN9" s="2" t="n">
+      <c r="AN9" s="3" t="n">
         <v>9.15360501567398</v>
       </c>
-      <c r="AO9" s="2" t="n">
+      <c r="AO9" s="3" t="n">
         <v>9.15360501567398</v>
       </c>
-      <c r="AP9" s="2" t="n">
+      <c r="AP9" s="3" t="n">
         <v>0.59248999692213</v>
       </c>
-      <c r="AQ9" s="2" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>0.59248999692213</v>
       </c>
-      <c r="AR9" s="2" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0.59248999692213</v>
       </c>
-      <c r="AS9" s="2" t="n">
+      <c r="AS9" s="3" t="n">
         <v>1.73817381738174</v>
       </c>
       <c r="AT9" s="0" t="n">
         <v>18.5</v>
       </c>
-      <c r="AZ9" s="2" t="n">
+      <c r="AZ9" s="3" t="n">
         <v>18.1784083496412</v>
       </c>
-      <c r="BA9" s="2" t="n">
+      <c r="BA9" s="3" t="n">
         <v>81.13074204947</v>
       </c>
       <c r="BB9" s="0" t="n">
         <v>13.5</v>
       </c>
-      <c r="BG9" s="2" t="n">
+      <c r="BG9" s="3" t="n">
         <v>79.9543378995434</v>
       </c>
-      <c r="BH9" s="2" t="n">
+      <c r="BH9" s="3" t="n">
         <v>79.9543378995434</v>
       </c>
-      <c r="BK9" s="2" t="n">
+      <c r="BK9" s="3" t="n">
         <v>5.66666666666667</v>
       </c>
       <c r="BM9" s="0" t="n">
@@ -1613,115 +1624,115 @@
       <c r="A10" s="1" t="n">
         <v>44005</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>7.39148205673179</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>20.7249338783361</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <v>16.1361283643892</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="3" t="n">
         <v>6.02249334739168</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="3" t="n">
         <v>6.02249334739168</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" s="3" t="n">
         <v>11.205957137668</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>11.205957137668</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>24.2394978271366</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>24.2394978271366</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" s="3" t="n">
         <v>10.7162346521146</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>10.1318353694008</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>3.20905459387483</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>4.67723669309173</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AB10" s="3" t="n">
         <v>2.5402331054578</v>
       </c>
-      <c r="AD10" s="2" t="n">
+      <c r="AD10" s="3" t="n">
         <v>17.97997997998</v>
       </c>
       <c r="AE10" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="AF10" s="2" t="n">
+      <c r="AF10" s="3" t="n">
         <v>17.3093841642229</v>
       </c>
-      <c r="AH10" s="2" t="n">
+      <c r="AH10" s="3" t="n">
         <v>11.1323155216285</v>
       </c>
-      <c r="AI10" s="2" t="n">
+      <c r="AI10" s="3" t="n">
         <v>21.0933857808858</v>
       </c>
-      <c r="AK10" s="2" t="n">
+      <c r="AK10" s="3" t="n">
         <v>38.3915745856354</v>
       </c>
-      <c r="AL10" s="2" t="n">
+      <c r="AL10" s="3" t="n">
         <v>7.57347400150716</v>
       </c>
-      <c r="AM10" s="2" t="n">
+      <c r="AM10" s="3" t="n">
         <v>7.57347400150716</v>
       </c>
-      <c r="AN10" s="2" t="n">
+      <c r="AN10" s="3" t="n">
         <v>7.57347400150716</v>
       </c>
-      <c r="AO10" s="2" t="n">
+      <c r="AO10" s="3" t="n">
         <v>7.57347400150716</v>
       </c>
-      <c r="AP10" s="2" t="n">
+      <c r="AP10" s="3" t="n">
         <v>0.134913400182315</v>
       </c>
-      <c r="AQ10" s="2" t="n">
+      <c r="AQ10" s="3" t="n">
         <v>0.134913400182315</v>
       </c>
-      <c r="AR10" s="2" t="n">
+      <c r="AR10" s="3" t="n">
         <v>0.134913400182315</v>
       </c>
-      <c r="AS10" s="2" t="n">
+      <c r="AS10" s="3" t="n">
         <v>12.2286821705426</v>
       </c>
       <c r="AT10" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="AZ10" s="2" t="n">
+      <c r="AZ10" s="3" t="n">
         <v>3.24641460234681</v>
       </c>
-      <c r="BA10" s="2" t="n">
+      <c r="BA10" s="3" t="n">
         <v>73.6072261072261</v>
       </c>
       <c r="BB10" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="BG10" s="2" t="n">
+      <c r="BG10" s="3" t="n">
         <v>72.0155677655678</v>
       </c>
-      <c r="BH10" s="2" t="n">
+      <c r="BH10" s="3" t="n">
         <v>72.0155677655678</v>
       </c>
-      <c r="BK10" s="2" t="n">
+      <c r="BK10" s="3" t="n">
         <v>10</v>
       </c>
       <c r="BM10" s="0" t="n">
@@ -1732,115 +1743,115 @@
       <c r="A11" s="1" t="n">
         <v>44061</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="2" t="n">
         <v>2.13016475459329</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="2" t="n">
         <v>6.89846047396644</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>7.71592225511649</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="2" t="n">
         <v>2.36923831317424</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="2" t="n">
         <v>2.36923831317424</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="2" t="n">
         <v>3.19303875586275</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="2" t="n">
         <v>3.19303875586275</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="2" t="n">
         <v>13.650054433289</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="2" t="n">
         <v>13.650054433289</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="2" t="n">
         <v>5.11772400261609</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="2" t="n">
         <v>5.7856001762794</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="2" t="n">
         <v>0.206896551724138</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="2" t="n">
         <v>1.25789309159112</v>
       </c>
-      <c r="AB11" s="3" t="n">
+      <c r="AB11" s="2" t="n">
         <v>3.12566817256958</v>
       </c>
-      <c r="AD11" s="3" t="n">
+      <c r="AD11" s="2" t="n">
         <v>3.26595358955765</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="AF11" s="3" t="n">
+      <c r="AF11" s="2" t="n">
         <v>2.88738019169329</v>
       </c>
-      <c r="AH11" s="3" t="n">
+      <c r="AH11" s="2" t="n">
         <v>4.57259585166562</v>
       </c>
-      <c r="AI11" s="3" t="n">
+      <c r="AI11" s="2" t="n">
         <v>3.21170892599464</v>
       </c>
-      <c r="AK11" s="3" t="n">
+      <c r="AK11" s="2" t="n">
         <v>24.4617773530817</v>
       </c>
-      <c r="AL11" s="3" t="n">
+      <c r="AL11" s="2" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AM11" s="3" t="n">
+      <c r="AM11" s="2" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AN11" s="3" t="n">
+      <c r="AN11" s="2" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AO11" s="3" t="n">
+      <c r="AO11" s="2" t="n">
         <v>4.56897494803632</v>
       </c>
-      <c r="AP11" s="3" t="n">
+      <c r="AP11" s="2" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AQ11" s="3" t="n">
+      <c r="AQ11" s="2" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AR11" s="3" t="n">
+      <c r="AR11" s="2" t="n">
         <v>0.402298850574713</v>
       </c>
-      <c r="AS11" s="3" t="n">
+      <c r="AS11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AT11" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="AZ11" s="3" t="n">
+      <c r="AZ11" s="2" t="n">
         <v>12.8867046042421</v>
       </c>
-      <c r="BA11" s="3" t="n">
+      <c r="BA11" s="2" t="n">
         <v>69.2809642560266</v>
       </c>
       <c r="BB11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="BG11" s="3" t="n">
+      <c r="BG11" s="2" t="n">
         <v>60.1125509070715</v>
       </c>
-      <c r="BH11" s="3" t="n">
+      <c r="BH11" s="2" t="n">
         <v>60.1125509070715</v>
       </c>
-      <c r="BK11" s="3" t="n">
+      <c r="BK11" s="2" t="n">
         <v>10.8428571428571</v>
       </c>
       <c r="BM11" s="0" t="n">
@@ -1851,115 +1862,115 @@
       <c r="A12" s="1" t="n">
         <v>44096</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>1.49253731343284</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>1.49253731343284</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <v>1.94863204913456</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="2" t="n">
         <v>6.05306859205776</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>8.5968914514916</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L12" s="2" t="n">
         <v>1.4736697468311</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="2" t="n">
         <v>1.4736697468311</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="N12" s="2" t="n">
         <v>7.60351583183311</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="2" t="n">
         <v>7.60351583183311</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="2" t="n">
         <v>10.4502740798747</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="2" t="n">
         <v>10.4502740798747</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="R12" s="2" t="n">
         <v>3.61459265890779</v>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="T12" s="2" t="n">
         <v>2.61707078128827</v>
       </c>
-      <c r="V12" s="3" t="n">
+      <c r="V12" s="2" t="n">
         <v>1.40167364016736</v>
       </c>
-      <c r="W12" s="3" t="n">
+      <c r="W12" s="2" t="n">
         <v>2.03678779721848</v>
       </c>
-      <c r="AB12" s="3" t="n">
+      <c r="AB12" s="2" t="n">
         <v>2.46416596814753</v>
       </c>
-      <c r="AD12" s="3" t="n">
+      <c r="AD12" s="2" t="n">
         <v>4.25445705024311</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF12" s="3" t="n">
+      <c r="AF12" s="2" t="n">
         <v>8.63859516616314</v>
       </c>
-      <c r="AH12" s="3" t="n">
+      <c r="AH12" s="2" t="n">
         <v>1.46396396396396</v>
       </c>
-      <c r="AI12" s="3" t="n">
+      <c r="AI12" s="2" t="n">
         <v>5.57336523125997</v>
       </c>
-      <c r="AK12" s="3" t="n">
+      <c r="AK12" s="2" t="n">
         <v>34.2603795966785</v>
       </c>
-      <c r="AL12" s="3" t="n">
+      <c r="AL12" s="2" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AM12" s="3" t="n">
+      <c r="AM12" s="2" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AN12" s="3" t="n">
+      <c r="AN12" s="2" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AO12" s="3" t="n">
+      <c r="AO12" s="2" t="n">
         <v>2.71989651928504</v>
       </c>
-      <c r="AP12" s="3" t="n">
+      <c r="AP12" s="2" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AQ12" s="3" t="n">
+      <c r="AQ12" s="2" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AR12" s="3" t="n">
+      <c r="AR12" s="2" t="n">
         <v>0.0482456140350877</v>
       </c>
-      <c r="AS12" s="3" t="n">
+      <c r="AS12" s="2" t="n">
         <v>15.5844155844156</v>
       </c>
       <c r="AT12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AZ12" s="3" t="n">
+      <c r="AZ12" s="2" t="n">
         <v>0.855285376561972</v>
       </c>
-      <c r="BA12" s="3" t="n">
+      <c r="BA12" s="2" t="n">
         <v>63.2489959839357</v>
       </c>
       <c r="BB12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG12" s="3" t="n">
+      <c r="BG12" s="2" t="n">
         <v>58.4554991539763</v>
       </c>
-      <c r="BH12" s="3" t="n">
+      <c r="BH12" s="2" t="n">
         <v>58.4554991539763</v>
       </c>
-      <c r="BK12" s="3" t="n">
+      <c r="BK12" s="2" t="n">
         <v>11.0077519379845</v>
       </c>
       <c r="BM12" s="0" t="n">
@@ -1970,115 +1981,115 @@
       <c r="A13" s="1" t="n">
         <v>44124</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="2" t="n">
         <v>1.60599571734475</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="2" t="n">
         <v>1.60599571734475</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <v>2.5197358713295</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="2" t="n">
         <v>10.9812082405345</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>5.37081189609738</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="2" t="n">
         <v>1.63052661222191</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="2" t="n">
         <v>1.63052661222191</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="2" t="n">
         <v>0.49580472921434</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="2" t="n">
         <v>0.49580472921434</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="2" t="n">
         <v>9.38970171260066</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="2" t="n">
         <v>9.38970171260066</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="2" t="n">
         <v>0.862405805191181</v>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="2" t="n">
         <v>6.54495696498705</v>
       </c>
-      <c r="V13" s="3" t="n">
+      <c r="V13" s="2" t="n">
         <v>3.16375601113642</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="2" t="n">
         <v>5.8028028028028</v>
       </c>
-      <c r="AB13" s="3" t="n">
+      <c r="AB13" s="2" t="n">
         <v>2.3671096345515</v>
       </c>
-      <c r="AD13" s="3" t="n">
+      <c r="AD13" s="2" t="n">
         <v>6.0143286750398</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF13" s="3" t="n">
+      <c r="AF13" s="2" t="n">
         <v>10.8547655068079</v>
       </c>
-      <c r="AH13" s="3" t="n">
+      <c r="AH13" s="2" t="n">
         <v>5.62756876383181</v>
       </c>
-      <c r="AI13" s="3" t="n">
+      <c r="AI13" s="2" t="n">
         <v>3.54660207120316</v>
       </c>
-      <c r="AK13" s="3" t="n">
+      <c r="AK13" s="2" t="n">
         <v>59.5436218282934</v>
       </c>
-      <c r="AL13" s="3" t="n">
+      <c r="AL13" s="2" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AM13" s="3" t="n">
+      <c r="AM13" s="2" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AN13" s="3" t="n">
+      <c r="AN13" s="2" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AO13" s="3" t="n">
+      <c r="AO13" s="2" t="n">
         <v>3.08000782472613</v>
       </c>
-      <c r="AP13" s="3" t="n">
+      <c r="AP13" s="2" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AQ13" s="3" t="n">
+      <c r="AQ13" s="2" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AR13" s="3" t="n">
+      <c r="AR13" s="2" t="n">
         <v>0.0433036768758366</v>
       </c>
-      <c r="AS13" s="3" t="n">
+      <c r="AS13" s="2" t="n">
         <v>2.73556231003039</v>
       </c>
       <c r="AT13" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="AZ13" s="3" t="n">
+      <c r="AZ13" s="2" t="n">
         <v>4.66833890746934</v>
       </c>
-      <c r="BA13" s="3" t="n">
+      <c r="BA13" s="2" t="n">
         <v>68.5383064516129</v>
       </c>
       <c r="BB13" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="BG13" s="3" t="n">
+      <c r="BG13" s="2" t="n">
         <v>61.3140333660452</v>
       </c>
-      <c r="BH13" s="3" t="n">
+      <c r="BH13" s="2" t="n">
         <v>61.3140333660452</v>
       </c>
-      <c r="BK13" s="3" t="n">
+      <c r="BK13" s="2" t="n">
         <v>14.7250859106529</v>
       </c>
       <c r="BM13" s="0" t="n">
@@ -2089,115 +2100,115 @@
       <c r="A14" s="1" t="n">
         <v>44145</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="2" t="n">
         <v>5.33536585365854</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="2" t="n">
         <v>5.33536585365854</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <v>3.39375629405841</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="2" t="n">
         <v>7.76861451460886</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>4.5785726113595</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="2" t="n">
         <v>0.953167839940719</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="2" t="n">
         <v>0.953167839940719</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="2" t="n">
         <v>1.82595680992089</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="2" t="n">
         <v>1.82595680992089</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="2" t="n">
         <v>6.34461487162388</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="Q14" s="2" t="n">
         <v>6.34461487162388</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="R14" s="2" t="n">
         <v>2.57590841214535</v>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="T14" s="2" t="n">
         <v>8.26009713701431</v>
       </c>
-      <c r="V14" s="3" t="n">
+      <c r="V14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="W14" s="2" t="n">
         <v>5.71321038765525</v>
       </c>
-      <c r="AB14" s="3" t="n">
+      <c r="AB14" s="2" t="n">
         <v>4.35640606767795</v>
       </c>
-      <c r="AD14" s="3" t="n">
+      <c r="AD14" s="2" t="n">
         <v>8.82039781591264</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>23.5</v>
       </c>
-      <c r="AF14" s="3" t="n">
+      <c r="AF14" s="2" t="n">
         <v>6.03728813559322</v>
       </c>
-      <c r="AH14" s="3" t="n">
+      <c r="AH14" s="2" t="n">
         <v>1.14823348694316</v>
       </c>
-      <c r="AI14" s="3" t="n">
+      <c r="AI14" s="2" t="n">
         <v>2.1379726468222</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="2" t="n">
         <v>70.0507767215395</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="2" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="2" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="2" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="2" t="n">
         <v>3.21329822251481</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="2" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AQ14" s="3" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AR14" s="3" t="n">
+      <c r="AR14" s="2" t="n">
         <v>0.812695109261186</v>
       </c>
-      <c r="AS14" s="3" t="n">
+      <c r="AS14" s="2" t="n">
         <v>7.16452991452992</v>
       </c>
       <c r="AT14" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="AZ14" s="3" t="n">
+      <c r="AZ14" s="2" t="n">
         <v>4.8155737704918</v>
       </c>
-      <c r="BA14" s="3" t="n">
+      <c r="BA14" s="2" t="n">
         <v>45.3097893432466</v>
       </c>
       <c r="BB14" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="BG14" s="3" t="n">
+      <c r="BG14" s="2" t="n">
         <v>57.003164556962</v>
       </c>
-      <c r="BH14" s="3" t="n">
+      <c r="BH14" s="2" t="n">
         <v>57.003164556962</v>
       </c>
-      <c r="BK14" s="3" t="n">
+      <c r="BK14" s="2" t="n">
         <v>85.2494802494803</v>
       </c>
       <c r="BM14" s="0" t="n">
@@ -2208,115 +2219,115 @@
       <c r="A15" s="1" t="n">
         <v>44173</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.660660660660661</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="2" t="n">
         <v>0.660660660660661</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <v>2.20662170447578</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="2" t="n">
         <v>9.02056074766355</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>5.65770736917052</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="L15" s="2" t="n">
         <v>0.890104841067625</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="2" t="n">
         <v>0.890104841067625</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N15" s="2" t="n">
         <v>5.34887924801157</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="O15" s="2" t="n">
         <v>5.34887924801157</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="P15" s="2" t="n">
         <v>3.67263901777429</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="Q15" s="2" t="n">
         <v>3.67263901777429</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="R15" s="2" t="n">
         <v>1.04982206405694</v>
       </c>
-      <c r="T15" s="3" t="n">
+      <c r="T15" s="2" t="n">
         <v>5.83274647887324</v>
       </c>
-      <c r="V15" s="3" t="n">
+      <c r="V15" s="2" t="n">
         <v>4.31769340974212</v>
       </c>
-      <c r="W15" s="3" t="n">
+      <c r="W15" s="2" t="n">
         <v>9.5592485549133</v>
       </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AB15" s="2" t="n">
         <v>2.18907579198583</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="2" t="n">
         <v>9.94964219454015</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF15" s="3" t="n">
+      <c r="AF15" s="2" t="n">
         <v>6.11378205128205</v>
       </c>
-      <c r="AH15" s="3" t="n">
+      <c r="AH15" s="2" t="n">
         <v>54.6974608319827</v>
       </c>
-      <c r="AI15" s="3" t="n">
+      <c r="AI15" s="2" t="n">
         <v>2.40375885236971</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="2" t="n">
         <v>72.8987194412107</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="2" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="2" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="2" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="2" t="n">
         <v>1.99974460477589</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="2" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AR15" s="3" t="n">
+      <c r="AR15" s="2" t="n">
         <v>2.95952380952381</v>
       </c>
-      <c r="AS15" s="3" t="n">
+      <c r="AS15" s="2" t="n">
         <v>5.74538258575198</v>
       </c>
       <c r="AT15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AZ15" s="3" t="n">
+      <c r="AZ15" s="2" t="n">
         <v>1.99570815450644</v>
       </c>
-      <c r="BA15" s="3" t="n">
+      <c r="BA15" s="2" t="n">
         <v>64.6815286624204</v>
       </c>
       <c r="BB15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="BG15" s="3" t="n">
+      <c r="BG15" s="2" t="n">
         <v>62.4537444933921</v>
       </c>
-      <c r="BH15" s="3" t="n">
+      <c r="BH15" s="2" t="n">
         <v>62.4537444933921</v>
       </c>
-      <c r="BK15" s="3" t="n">
+      <c r="BK15" s="2" t="n">
         <v>83.4959742351047</v>
       </c>
       <c r="BM15" s="0" t="n">
@@ -2327,115 +2338,115 @@
       <c r="A16" s="1" t="n">
         <v>44208</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.204460966542751</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="2" t="n">
         <v>0.204460966542751</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <v>5.40905409054091</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="2" t="n">
         <v>5.66405917864127</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>2.41957104557641</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="2" t="n">
         <v>0.451586136465182</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="M16" s="2" t="n">
         <v>0.451586136465182</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="N16" s="2" t="n">
         <v>2.58896338318721</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="O16" s="2" t="n">
         <v>2.58896338318721</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="2" t="n">
         <v>3.10443218565722</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="Q16" s="2" t="n">
         <v>3.10443218565722</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="R16" s="2" t="n">
         <v>4.55696202531646</v>
       </c>
-      <c r="T16" s="3" t="n">
+      <c r="T16" s="2" t="n">
         <v>2.17545719586536</v>
       </c>
-      <c r="V16" s="3" t="n">
+      <c r="V16" s="2" t="n">
         <v>1.26284289276808</v>
       </c>
-      <c r="W16" s="3" t="n">
+      <c r="W16" s="2" t="n">
         <v>4.79103834554072</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="2" t="n">
         <v>1.90340358978178</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="2" t="n">
         <v>4.9629217059198</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF16" s="3" t="n">
+      <c r="AF16" s="2" t="n">
         <v>21.5538628944505</v>
       </c>
-      <c r="AH16" s="3" t="n">
+      <c r="AH16" s="2" t="n">
         <v>22.3255352894528</v>
       </c>
-      <c r="AI16" s="3" t="n">
+      <c r="AI16" s="2" t="n">
         <v>2.68310265282584</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="2" t="n">
         <v>71.3916191311979</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="2" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="2" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="2" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="2" t="n">
         <v>1.91215799218268</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="2" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AR16" s="3" t="n">
+      <c r="AR16" s="2" t="n">
         <v>0.22241847826087</v>
       </c>
-      <c r="AS16" s="3" t="n">
+      <c r="AS16" s="2" t="n">
         <v>1.61206896551724</v>
       </c>
       <c r="AT16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AZ16" s="3" t="n">
+      <c r="AZ16" s="2" t="n">
         <v>1.57286212914485</v>
       </c>
-      <c r="BA16" s="3" t="n">
+      <c r="BA16" s="2" t="n">
         <v>40.8438818565401</v>
       </c>
       <c r="BB16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG16" s="3" t="n">
+      <c r="BG16" s="2" t="n">
         <v>46.8894389438944</v>
       </c>
-      <c r="BH16" s="3" t="n">
+      <c r="BH16" s="2" t="n">
         <v>46.8894389438944</v>
       </c>
-      <c r="BK16" s="3" t="n">
+      <c r="BK16" s="2" t="n">
         <v>92.0143149284253</v>
       </c>
       <c r="BM16" s="0" t="n">
@@ -2446,115 +2457,115 @@
       <c r="A17" s="1" t="n">
         <v>44236</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="2" t="n">
         <v>1.72594142259414</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="2" t="n">
         <v>1.72594142259414</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="2" t="n">
         <v>7.01038794485412</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="2" t="n">
         <v>2.24369621017666</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>9.39545676599902</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="L17" s="2" t="n">
         <v>1.54096477794793</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="2" t="n">
         <v>1.54096477794793</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N17" s="2" t="n">
         <v>2.53907703758839</v>
       </c>
-      <c r="O17" s="3" t="n">
+      <c r="O17" s="2" t="n">
         <v>2.53907703758839</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="P17" s="2" t="n">
         <v>6.31197859279081</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="Q17" s="2" t="n">
         <v>6.31197859279081</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="R17" s="2" t="n">
         <v>1.19209265175719</v>
       </c>
-      <c r="T17" s="3" t="n">
+      <c r="T17" s="2" t="n">
         <v>2.01022436807725</v>
       </c>
-      <c r="V17" s="3" t="n">
+      <c r="V17" s="2" t="n">
         <v>0.547958978483813</v>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="W17" s="2" t="n">
         <v>4.91837588949351</v>
       </c>
-      <c r="AB17" s="3" t="n">
+      <c r="AB17" s="2" t="n">
         <v>2.02833251790241</v>
       </c>
-      <c r="AD17" s="3" t="n">
+      <c r="AD17" s="2" t="n">
         <v>6.95749856897539</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF17" s="3" t="n">
+      <c r="AF17" s="2" t="n">
         <v>5.90909090909091</v>
       </c>
-      <c r="AH17" s="3" t="n">
+      <c r="AH17" s="2" t="n">
         <v>19.7287299630086</v>
       </c>
-      <c r="AI17" s="3" t="n">
+      <c r="AI17" s="2" t="n">
         <v>2.79183119447187</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="2" t="n">
         <v>60.5058688806184</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="2" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="2" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="2" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="2" t="n">
         <v>2.47687754347022</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="2" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AR17" s="3" t="n">
+      <c r="AR17" s="2" t="n">
         <v>0.0965804066543438</v>
       </c>
-      <c r="AS17" s="3" t="n">
+      <c r="AS17" s="2" t="n">
         <v>5.73991031390135</v>
       </c>
       <c r="AT17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ17" s="3" t="n">
+      <c r="AZ17" s="2" t="n">
         <v>2.16924910607866</v>
       </c>
-      <c r="BA17" s="3" t="n">
+      <c r="BA17" s="2" t="n">
         <v>70.2730109204368</v>
       </c>
       <c r="BB17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BG17" s="3" t="n">
+      <c r="BG17" s="2" t="n">
         <v>56.4194139194139</v>
       </c>
-      <c r="BH17" s="3" t="n">
+      <c r="BH17" s="2" t="n">
         <v>56.4194139194139</v>
       </c>
-      <c r="BK17" s="3" t="n">
+      <c r="BK17" s="2" t="n">
         <v>89</v>
       </c>
       <c r="BM17" s="0" t="n">
@@ -2565,115 +2576,115 @@
       <c r="A18" s="1" t="n">
         <v>44271</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="2" t="n">
         <v>2.36486486486486</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="2" t="n">
         <v>2.36486486486486</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="2" t="n">
         <v>4.60835008222182</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="2" t="n">
         <v>3.15904139433551</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>14.2099091175608</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="L18" s="2" t="n">
         <v>0.872440273037543</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="M18" s="2" t="n">
         <v>0.872440273037543</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N18" s="2" t="n">
         <v>2.47296322999279</v>
       </c>
-      <c r="O18" s="3" t="n">
+      <c r="O18" s="2" t="n">
         <v>2.47296322999279</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="P18" s="2" t="n">
         <v>3.31036168132942</v>
       </c>
-      <c r="Q18" s="3" t="n">
+      <c r="Q18" s="2" t="n">
         <v>3.31036168132942</v>
       </c>
-      <c r="R18" s="3" t="n">
+      <c r="R18" s="2" t="n">
         <v>1.57685762904141</v>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="T18" s="2" t="n">
         <v>1.74349872675361</v>
       </c>
-      <c r="V18" s="3" t="n">
+      <c r="V18" s="2" t="n">
         <v>2.72331154684096</v>
       </c>
-      <c r="W18" s="3" t="n">
+      <c r="W18" s="2" t="n">
         <v>6.94990488268865</v>
       </c>
-      <c r="AB18" s="3" t="n">
+      <c r="AB18" s="2" t="n">
         <v>1.22086118839015</v>
       </c>
-      <c r="AD18" s="3" t="n">
+      <c r="AD18" s="2" t="n">
         <v>5.91094295692666</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AF18" s="3" t="n">
+      <c r="AF18" s="2" t="n">
         <v>40.7352941176471</v>
       </c>
-      <c r="AH18" s="3" t="n">
+      <c r="AH18" s="2" t="n">
         <v>15.8610271903323</v>
       </c>
-      <c r="AI18" s="3" t="n">
+      <c r="AI18" s="2" t="n">
         <v>2.39155693261038</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="2" t="n">
         <v>76.5192307692308</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="2" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="2" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="2" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="2" t="n">
         <v>1.32193821546182</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="2" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AR18" s="3" t="n">
+      <c r="AR18" s="2" t="n">
         <v>0.364838757616288</v>
       </c>
-      <c r="AS18" s="3" t="n">
+      <c r="AS18" s="2" t="n">
         <v>2.66924564796905</v>
       </c>
       <c r="AT18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ18" s="3" t="n">
+      <c r="AZ18" s="2" t="n">
         <v>1.09357881923311</v>
       </c>
-      <c r="BA18" s="3" t="n">
+      <c r="BA18" s="2" t="n">
         <v>64.6098829648895</v>
       </c>
       <c r="BB18" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="BG18" s="3" t="n">
+      <c r="BG18" s="2" t="n">
         <v>46.7102552619794</v>
       </c>
-      <c r="BH18" s="3" t="n">
+      <c r="BH18" s="2" t="n">
         <v>46.7102552619794</v>
       </c>
-      <c r="BK18" s="3" t="n">
+      <c r="BK18" s="2" t="n">
         <v>11.304347826087</v>
       </c>
       <c r="BM18" s="0" t="n">
@@ -2684,115 +2695,115 @@
       <c r="A19" s="1" t="n">
         <v>44306</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="2" t="n">
         <v>4.77356181150551</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="2" t="n">
         <v>4.77356181150551</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="2" t="n">
         <v>7.06175680859225</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="2" t="n">
         <v>4.25785032507954</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>10.4211733857752</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="2" t="n">
         <v>1.47115482104836</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="2" t="n">
         <v>1.47115482104836</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N19" s="2" t="n">
         <v>0.408041401273885</v>
       </c>
-      <c r="O19" s="3" t="n">
+      <c r="O19" s="2" t="n">
         <v>0.408041401273885</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="P19" s="2" t="n">
         <v>3.82786214422115</v>
       </c>
-      <c r="Q19" s="3" t="n">
+      <c r="Q19" s="2" t="n">
         <v>3.82786214422115</v>
       </c>
-      <c r="R19" s="3" t="n">
+      <c r="R19" s="2" t="n">
         <v>1.77496038034865</v>
       </c>
-      <c r="T19" s="3" t="n">
+      <c r="T19" s="2" t="n">
         <v>3.13403684161807</v>
       </c>
-      <c r="V19" s="3" t="n">
+      <c r="V19" s="2" t="n">
         <v>4.52104499274311</v>
       </c>
-      <c r="W19" s="3" t="n">
+      <c r="W19" s="2" t="n">
         <v>6.20337109698812</v>
       </c>
-      <c r="AB19" s="3" t="n">
+      <c r="AB19" s="2" t="n">
         <v>0.929512122119126</v>
       </c>
-      <c r="AD19" s="3" t="n">
+      <c r="AD19" s="2" t="n">
         <v>4.46484549932826</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF19" s="3" t="n">
+      <c r="AF19" s="2" t="n">
         <v>11.5492957746479</v>
       </c>
-      <c r="AH19" s="3" t="n">
+      <c r="AH19" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AI19" s="3" t="n">
+      <c r="AI19" s="2" t="n">
         <v>1.03503696560591</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="2" t="n">
         <v>58.8388558482016</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="2" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="2" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="2" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="2" t="n">
         <v>2.35841625207297</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="2" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AR19" s="3" t="n">
+      <c r="AR19" s="2" t="n">
         <v>0.112982744453574</v>
       </c>
-      <c r="AS19" s="3" t="n">
+      <c r="AS19" s="2" t="n">
         <v>1.23022847100176</v>
       </c>
       <c r="AT19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ19" s="3" t="n">
+      <c r="AZ19" s="2" t="n">
         <v>1.46890061969245</v>
       </c>
-      <c r="BA19" s="3" t="n">
+      <c r="BA19" s="2" t="n">
         <v>57.8392007611798</v>
       </c>
       <c r="BB19" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="BG19" s="3" t="n">
+      <c r="BG19" s="2" t="n">
         <v>47.0383928571429</v>
       </c>
-      <c r="BH19" s="3" t="n">
+      <c r="BH19" s="2" t="n">
         <v>47.0383928571429</v>
       </c>
-      <c r="BK19" s="3" t="n">
+      <c r="BK19" s="2" t="n">
         <v>72.1212121212121</v>
       </c>
       <c r="BM19" s="0" t="n">
@@ -2803,115 +2814,115 @@
       <c r="A20" s="1" t="n">
         <v>44341</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="2" t="n">
         <v>4.52883263009845</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="2" t="n">
         <v>4.52883263009845</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="2" t="n">
         <v>3.44662155337845</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="2" t="n">
         <v>2.27621483375959</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>8.65934449093445</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="2" t="n">
         <v>0.411349027287046</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="2" t="n">
         <v>0.411349027287046</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="N20" s="2" t="n">
         <v>0.0841143955779861</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O20" s="2" t="n">
         <v>0.0841143955779861</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="2" t="n">
         <v>1.97914225451137</v>
       </c>
-      <c r="Q20" s="3" t="n">
+      <c r="Q20" s="2" t="n">
         <v>1.97914225451137</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="R20" s="2" t="n">
         <v>0.887480190174327</v>
       </c>
-      <c r="T20" s="3" t="n">
+      <c r="T20" s="2" t="n">
         <v>3.98175031107424</v>
       </c>
-      <c r="V20" s="3" t="n">
+      <c r="V20" s="2" t="n">
         <v>0.0642523364485981</v>
       </c>
-      <c r="W20" s="3" t="n">
+      <c r="W20" s="2" t="n">
         <v>5.98925092374874</v>
       </c>
-      <c r="AB20" s="3" t="n">
+      <c r="AB20" s="2" t="n">
         <v>0.536582379232229</v>
       </c>
-      <c r="AD20" s="3" t="n">
+      <c r="AD20" s="2" t="n">
         <v>2.57165149544863</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AF20" s="3" t="n">
+      <c r="AF20" s="2" t="n">
         <v>59.0601503759399</v>
       </c>
-      <c r="AH20" s="3" t="n">
+      <c r="AH20" s="2" t="n">
         <v>19.6540880503145</v>
       </c>
-      <c r="AI20" s="3" t="n">
+      <c r="AI20" s="2" t="n">
         <v>4.02805611222445</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="2" t="n">
         <v>42.9572719802794</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="2" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="2" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="2" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AO20" s="3" t="n">
+      <c r="AO20" s="2" t="n">
         <v>0.581500213271586</v>
       </c>
-      <c r="AP20" s="3" t="n">
+      <c r="AP20" s="2" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AQ20" s="3" t="n">
+      <c r="AQ20" s="2" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AR20" s="3" t="n">
+      <c r="AR20" s="2" t="n">
         <v>2.26415094339623</v>
       </c>
-      <c r="AS20" s="3" t="n">
+      <c r="AS20" s="2" t="n">
         <v>0.294117647058824</v>
       </c>
       <c r="AT20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AZ20" s="3" t="n">
+      <c r="AZ20" s="2" t="n">
         <v>0.25899764547595</v>
       </c>
-      <c r="BA20" s="3" t="n">
+      <c r="BA20" s="2" t="n">
         <v>51.958174904943</v>
       </c>
       <c r="BB20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BG20" s="3" t="n">
+      <c r="BG20" s="2" t="n">
         <v>20.3025682182986</v>
       </c>
-      <c r="BH20" s="3" t="n">
+      <c r="BH20" s="2" t="n">
         <v>20.3025682182986</v>
       </c>
-      <c r="BK20" s="3" t="n">
+      <c r="BK20" s="2" t="n">
         <v>3.84615384615385</v>
       </c>
       <c r="BM20" s="0" t="n">
@@ -2922,115 +2933,115 @@
       <c r="A21" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="2" t="n">
         <v>1.46478873239437</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="2" t="n">
         <v>1.46478873239437</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="2" t="n">
         <v>1.18225831641418</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="2" t="n">
         <v>3.4156378600823</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>10.4122396940077</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="L21" s="2" t="n">
         <v>0.812386307259798</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="2" t="n">
         <v>0.812386307259798</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N21" s="2" t="n">
         <v>0.37397157816006</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="O21" s="2" t="n">
         <v>0.37397157816006</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="2" t="n">
         <v>3.32439678284182</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="2" t="n">
         <v>3.32439678284182</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="2" t="n">
         <v>0.881666985280061</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="2" t="n">
         <v>0.0471380471380471</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="2" t="n">
         <v>9.9349593495935</v>
       </c>
-      <c r="AB21" s="3" t="n">
+      <c r="AB21" s="2" t="n">
         <v>0.590070757452732</v>
       </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AD21" s="2" t="n">
         <v>1.47817119284978</v>
       </c>
       <c r="AE21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AF21" s="3" t="n">
+      <c r="AF21" s="2" t="n">
         <v>1.93470374848851</v>
       </c>
-      <c r="AH21" s="3" t="n">
+      <c r="AH21" s="2" t="n">
         <v>9.97715156130998</v>
       </c>
-      <c r="AI21" s="3" t="n">
+      <c r="AI21" s="2" t="n">
         <v>0.330013200528021</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="2" t="n">
         <v>14.3075453677173</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="2" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="2" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="2" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="2" t="n">
         <v>2.46211210007217</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AT21" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="AZ21" s="3" t="n">
+      <c r="AZ21" s="2" t="n">
         <v>0.629072118625028</v>
       </c>
-      <c r="BA21" s="3" t="n">
+      <c r="BA21" s="2" t="n">
         <v>46.2397540983607</v>
       </c>
       <c r="BB21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="BG21" s="3" t="n">
+      <c r="BG21" s="2" t="n">
         <v>18.8385598141696</v>
       </c>
-      <c r="BH21" s="3" t="n">
+      <c r="BH21" s="2" t="n">
         <v>18.8385598141696</v>
       </c>
-      <c r="BK21" s="3" t="n">
+      <c r="BK21" s="2" t="n">
         <v>12</v>
       </c>
       <c r="BM21" s="0" t="n">
@@ -3041,115 +3052,115 @@
       <c r="A22" s="1" t="n">
         <v>44495</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="2" t="n">
         <v>0.760462465396515</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="2" t="n">
         <v>3.4273344254622</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>1.59584513692162</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="L22" s="2" t="n">
         <v>0.127424250218633</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="M22" s="2" t="n">
         <v>0.127424250218633</v>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="N22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="n">
+      <c r="O22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="n">
+      <c r="P22" s="2" t="n">
         <v>0.433487012256831</v>
       </c>
-      <c r="Q22" s="3" t="n">
+      <c r="Q22" s="2" t="n">
         <v>0.433487012256831</v>
       </c>
-      <c r="R22" s="3" t="n">
+      <c r="R22" s="2" t="n">
         <v>2.98013245033113</v>
       </c>
-      <c r="T22" s="3" t="n">
+      <c r="T22" s="2" t="n">
         <v>0.933576452201094</v>
       </c>
-      <c r="V22" s="3" t="n">
+      <c r="V22" s="2" t="n">
         <v>8.89436313577742</v>
       </c>
-      <c r="W22" s="3" t="n">
+      <c r="W22" s="2" t="n">
         <v>3.37358784573432</v>
       </c>
-      <c r="AB22" s="3" t="n">
+      <c r="AB22" s="2" t="n">
         <v>0.511047788106694</v>
       </c>
-      <c r="AD22" s="3" t="n">
+      <c r="AD22" s="2" t="n">
         <v>0.30644593166608</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AF22" s="3" t="n">
+      <c r="AF22" s="2" t="n">
         <v>24.2835595776772</v>
       </c>
-      <c r="AH22" s="3" t="n">
+      <c r="AH22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AI22" s="3" t="n">
+      <c r="AI22" s="2" t="n">
         <v>0.428724544480172</v>
       </c>
-      <c r="AK22" s="3" t="n">
+      <c r="AK22" s="2" t="n">
         <v>3.54077253218884</v>
       </c>
-      <c r="AL22" s="3" t="n">
+      <c r="AL22" s="2" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AM22" s="3" t="n">
+      <c r="AM22" s="2" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AN22" s="3" t="n">
+      <c r="AN22" s="2" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AO22" s="3" t="n">
+      <c r="AO22" s="2" t="n">
         <v>0.94430265725867</v>
       </c>
-      <c r="AP22" s="3" t="n">
+      <c r="AP22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ22" s="3" t="n">
+      <c r="AQ22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AR22" s="3" t="n">
+      <c r="AR22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS22" s="3" t="n">
+      <c r="AS22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AT22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ22" s="3" t="n">
+      <c r="AZ22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BA22" s="3" t="n">
+      <c r="BA22" s="2" t="n">
         <v>8.56756756756757</v>
       </c>
       <c r="BB22" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="BG22" s="3" t="n">
+      <c r="BG22" s="2" t="n">
         <v>2.65946502057613</v>
       </c>
-      <c r="BH22" s="3" t="n">
+      <c r="BH22" s="2" t="n">
         <v>2.65946502057613</v>
       </c>
-      <c r="BK22" s="3" t="n">
+      <c r="BK22" s="2" t="n">
         <v>2.64705882352941</v>
       </c>
       <c r="BM22" s="0" t="n">
@@ -3160,128 +3171,128 @@
       <c r="A23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
